--- a/test.xlsx
+++ b/test.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Лист1'!$A$1:$G$845</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Лист1'!$A$1:$G$991</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -807,10 +807,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G845"/>
+  <dimension ref="A1:G991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F646" sqref="F646"/>
+    <sheetView topLeftCell="A961" workbookViewId="0">
+      <selection activeCell="A986" sqref="A986:XFD986"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -973,7 +973,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" hidden="1" ht="15.75" customHeight="1">
       <c r="A6" s="54" t="n">
         <v>3</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" hidden="1" ht="15.75" customHeight="1">
       <c r="A15" s="54" t="n">
         <v>5</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" hidden="1" ht="15.75" customHeight="1">
       <c r="A36" s="54" t="n">
         <v>2</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" hidden="1" ht="15.75" customHeight="1">
       <c r="A41" s="54" t="n">
         <v>2</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" hidden="1" ht="15.75" customHeight="1">
       <c r="A44" s="54" t="n">
         <v>2</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" hidden="1" ht="15.75" customHeight="1">
       <c r="A64" s="54" t="n">
         <v>6</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" hidden="1" ht="15.75" customHeight="1">
       <c r="A86" s="54" t="n">
         <v>2</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" hidden="1" ht="15.75" customHeight="1">
       <c r="A87" s="54" t="n">
         <v>2</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" hidden="1" ht="15.75" customHeight="1">
       <c r="A88" s="54" t="n">
         <v>2</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" hidden="1" ht="15.75" customHeight="1">
       <c r="A120" s="54" t="n">
         <v>7</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" hidden="1" ht="15.75" customHeight="1">
       <c r="A188" s="54" t="n">
         <v>6</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" hidden="1" ht="15.75" customHeight="1">
       <c r="A246" s="54" t="n">
         <v>3</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" hidden="1" ht="15.75" customHeight="1">
       <c r="A260" s="54" t="n">
         <v>6</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" hidden="1" ht="15.75" customHeight="1">
       <c r="A274" s="54" t="n">
         <v>1</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" hidden="1" ht="15.75" customHeight="1">
       <c r="A289" s="54" t="n">
         <v>3</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" hidden="1" ht="15.75" customHeight="1">
       <c r="A309" s="54" t="n">
         <v>7</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" hidden="1" ht="15.75" customHeight="1">
       <c r="A335" s="54" t="n">
         <v>4</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" hidden="1" ht="15.75" customHeight="1">
       <c r="A349" s="54">
         <f>WEEKDAY(C349)</f>
         <v/>
@@ -11192,7 +11192,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" hidden="1" ht="15.75" customHeight="1">
       <c r="A359" s="54">
         <f>WEEKDAY(C359)</f>
         <v/>
@@ -11998,7 +11998,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" hidden="1" ht="15.75" customHeight="1">
       <c r="A385" s="54">
         <f>WEEKDAY(C385)</f>
         <v/>
@@ -14369,7 +14369,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" hidden="1" ht="15.75" customHeight="1">
       <c r="A462" s="54">
         <f>WEEKDAY(C462)</f>
         <v/>
@@ -14741,7 +14741,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" hidden="1" ht="15.75" customHeight="1">
       <c r="A474" s="54">
         <f>WEEKDAY(C474)</f>
         <v/>
@@ -15109,7 +15109,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" hidden="1" ht="15.75" customHeight="1">
       <c r="A486" s="54">
         <f>WEEKDAY(C486)</f>
         <v/>
@@ -15140,7 +15140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" hidden="1" ht="15.75" customHeight="1">
       <c r="A487" s="54">
         <f>WEEKDAY(C487)</f>
         <v/>
@@ -15171,7 +15171,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" hidden="1" ht="15.75" customHeight="1">
       <c r="A488" s="54">
         <f>WEEKDAY(C488)</f>
         <v/>
@@ -15849,7 +15849,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" hidden="1" ht="15.75" customHeight="1">
       <c r="A510" s="54">
         <f>WEEKDAY(C510)</f>
         <v/>
@@ -16190,7 +16190,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" hidden="1" ht="15.75" customHeight="1">
       <c r="A521" s="54">
         <f>WEEKDAY(C521)</f>
         <v/>
@@ -16252,7 +16252,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" hidden="1" ht="15.75" customHeight="1">
       <c r="A523" s="54">
         <f>WEEKDAY(C523)</f>
         <v/>
@@ -16593,7 +16593,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" hidden="1" ht="15.75" customHeight="1">
       <c r="A534" s="54">
         <f>WEEKDAY(C534)</f>
         <v/>
@@ -20026,7 +20026,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" hidden="1" ht="15.75" customHeight="1">
       <c r="A645" s="54">
         <f>WEEKDAY(C645)</f>
         <v/>
@@ -20057,7 +20057,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" hidden="1" ht="15.75" customHeight="1">
       <c r="A646" s="54">
         <f>WEEKDAY(C646)</f>
         <v/>
@@ -20491,7 +20491,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" hidden="1" ht="15.75" customHeight="1">
       <c r="A660" s="54">
         <f>WEEKDAY(C660)</f>
         <v/>
@@ -20828,7 +20828,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" hidden="1" ht="15.75" customHeight="1">
       <c r="A671" s="54">
         <f>WEEKDAY(C671)</f>
         <v/>
@@ -20921,7 +20921,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="674" hidden="1" ht="15.75" customHeight="1">
+    <row r="674" ht="15.75" customHeight="1">
       <c r="A674" s="54">
         <f>WEEKDAY(C674)</f>
         <v/>
@@ -20952,7 +20952,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="675" hidden="1" ht="15.75" customHeight="1">
+    <row r="675" ht="15.75" customHeight="1">
       <c r="A675" s="54">
         <f>WEEKDAY(C675)</f>
         <v/>
@@ -20983,7 +20983,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="676" hidden="1" ht="15.75" customHeight="1">
+    <row r="676" ht="15.75" customHeight="1">
       <c r="A676" s="54">
         <f>WEEKDAY(C676)</f>
         <v/>
@@ -21014,7 +21014,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="677" hidden="1" ht="15.75" customHeight="1">
+    <row r="677" ht="15.75" customHeight="1">
       <c r="A677" s="54">
         <f>WEEKDAY(C677)</f>
         <v/>
@@ -21045,7 +21045,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="678" hidden="1" ht="15.75" customHeight="1">
+    <row r="678" ht="15.75" customHeight="1">
       <c r="A678" s="54">
         <f>WEEKDAY(C678)</f>
         <v/>
@@ -21076,7 +21076,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="679" hidden="1" ht="15.75" customHeight="1">
+    <row r="679" ht="15.75" customHeight="1">
       <c r="A679" s="54">
         <f>WEEKDAY(C679)</f>
         <v/>
@@ -21107,7 +21107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="680" hidden="1" ht="15.75" customHeight="1">
+    <row r="680" ht="15.75" customHeight="1">
       <c r="A680" s="54">
         <f>WEEKDAY(C680)</f>
         <v/>
@@ -21138,7 +21138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="681" hidden="1" ht="15.75" customHeight="1">
+    <row r="681" ht="15.75" customHeight="1">
       <c r="A681" s="54">
         <f>WEEKDAY(C681)</f>
         <v/>
@@ -21169,7 +21169,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="682" hidden="1" ht="15.75" customHeight="1">
+    <row r="682" ht="15.75" customHeight="1">
       <c r="A682" s="54">
         <f>WEEKDAY(C682)</f>
         <v/>
@@ -21200,7 +21200,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="683" hidden="1" ht="15.75" customHeight="1">
+    <row r="683" ht="15.75" customHeight="1">
       <c r="A683" s="54">
         <f>WEEKDAY(C683)</f>
         <v/>
@@ -21231,7 +21231,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="684" hidden="1" ht="15.75" customHeight="1">
+    <row r="684" ht="15.75" customHeight="1">
       <c r="A684" s="54">
         <f>WEEKDAY(C684)</f>
         <v/>
@@ -21262,7 +21262,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="685" hidden="1" ht="15.75" customHeight="1">
+    <row r="685" ht="15.75" customHeight="1">
       <c r="A685" s="54">
         <f>WEEKDAY(C685)</f>
         <v/>
@@ -21293,7 +21293,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="686" hidden="1" ht="15.75" customHeight="1">
+    <row r="686" ht="15.75" customHeight="1">
       <c r="A686" s="54">
         <f>WEEKDAY(C686)</f>
         <v/>
@@ -21324,7 +21324,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="687" hidden="1" ht="15.75" customHeight="1">
+    <row r="687" ht="15.75" customHeight="1">
       <c r="A687" s="54">
         <f>WEEKDAY(C687)</f>
         <v/>
@@ -21386,7 +21386,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="689" hidden="1" ht="15.75" customHeight="1">
+    <row r="689" ht="15.75" customHeight="1">
       <c r="A689" s="54">
         <f>WEEKDAY(C689)</f>
         <v/>
@@ -21417,7 +21417,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="690" hidden="1" ht="15.75" customHeight="1">
+    <row r="690" ht="15.75" customHeight="1">
       <c r="A690" s="54">
         <f>WEEKDAY(C690)</f>
         <v/>
@@ -21448,7 +21448,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="691" hidden="1" ht="15.75" customHeight="1">
+    <row r="691" ht="15.75" customHeight="1">
       <c r="A691" s="54">
         <f>WEEKDAY(C691)</f>
         <v/>
@@ -21479,7 +21479,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="692" hidden="1" ht="15.75" customHeight="1">
+    <row r="692" ht="15.75" customHeight="1">
       <c r="A692" s="54">
         <f>WEEKDAY(C692)</f>
         <v/>
@@ -21510,7 +21510,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="693" hidden="1" ht="15.75" customHeight="1">
+    <row r="693" ht="15.75" customHeight="1">
       <c r="A693" s="54">
         <f>WEEKDAY(C693)</f>
         <v/>
@@ -21541,7 +21541,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="694" hidden="1" ht="15.75" customHeight="1">
+    <row r="694" ht="15.75" customHeight="1">
       <c r="A694" s="54">
         <f>WEEKDAY(C694)</f>
         <v/>
@@ -21603,7 +21603,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="696" hidden="1" ht="15.75" customHeight="1">
+    <row r="696" ht="15.75" customHeight="1">
       <c r="A696" s="54">
         <f>WEEKDAY(C696)</f>
         <v/>
@@ -21634,7 +21634,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="697" hidden="1" ht="15.75" customHeight="1">
+    <row r="697" ht="15.75" customHeight="1">
       <c r="A697" s="54">
         <f>WEEKDAY(C697)</f>
         <v/>
@@ -21665,7 +21665,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="698" hidden="1" ht="15.75" customHeight="1">
+    <row r="698" ht="15.75" customHeight="1">
       <c r="A698" s="54">
         <f>WEEKDAY(C698)</f>
         <v/>
@@ -21696,7 +21696,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="699" hidden="1" ht="15.75" customHeight="1">
+    <row r="699" ht="15.75" customHeight="1">
       <c r="A699" s="54">
         <f>WEEKDAY(C699)</f>
         <v/>
@@ -21727,7 +21727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="700" hidden="1" ht="15.75" customHeight="1">
+    <row r="700" ht="15.75" customHeight="1">
       <c r="A700" s="54">
         <f>WEEKDAY(C700)</f>
         <v/>
@@ -21758,7 +21758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="701" hidden="1" ht="15.75" customHeight="1">
+    <row r="701" ht="15.75" customHeight="1">
       <c r="A701" s="54">
         <f>WEEKDAY(C701)</f>
         <v/>
@@ -21789,7 +21789,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="702" hidden="1" ht="15.75" customHeight="1">
+    <row r="702" ht="15.75" customHeight="1">
       <c r="A702" s="54">
         <f>WEEKDAY(C702)</f>
         <v/>
@@ -21820,7 +21820,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="703" hidden="1" ht="15.75" customHeight="1">
+    <row r="703" ht="15.75" customHeight="1">
       <c r="A703" s="54">
         <f>WEEKDAY(C703)</f>
         <v/>
@@ -21847,7 +21847,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="704" hidden="1" ht="15.75" customHeight="1">
+    <row r="704" ht="15.75" customHeight="1">
       <c r="A704" s="54">
         <f>WEEKDAY(C704)</f>
         <v/>
@@ -21874,7 +21874,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="705" hidden="1" ht="15.75" customHeight="1">
+    <row r="705" ht="15.75" customHeight="1">
       <c r="A705" s="54">
         <f>WEEKDAY(C705)</f>
         <v/>
@@ -21905,7 +21905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="706" hidden="1" ht="15.75" customHeight="1">
+    <row r="706" ht="15.75" customHeight="1">
       <c r="A706" s="54">
         <f>WEEKDAY(C706)</f>
         <v/>
@@ -21936,7 +21936,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="707" hidden="1" ht="15.75" customHeight="1">
+    <row r="707" ht="15.75" customHeight="1">
       <c r="A707" s="54">
         <f>WEEKDAY(C707)</f>
         <v/>
@@ -21967,7 +21967,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="708" hidden="1" ht="15.75" customHeight="1">
+    <row r="708" ht="15.75" customHeight="1">
       <c r="A708" s="54">
         <f>WEEKDAY(C708)</f>
         <v/>
@@ -21998,7 +21998,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="709" hidden="1" ht="15.75" customHeight="1">
+    <row r="709" ht="15.75" customHeight="1">
       <c r="A709" s="54">
         <f>WEEKDAY(C709)</f>
         <v/>
@@ -22029,7 +22029,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="710" hidden="1" ht="15.75" customHeight="1">
+    <row r="710" ht="15.75" customHeight="1">
       <c r="A710" s="54">
         <f>WEEKDAY(C710)</f>
         <v/>
@@ -22060,7 +22060,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="711" hidden="1" ht="15.75" customHeight="1">
+    <row r="711" ht="15.75" customHeight="1">
       <c r="A711" s="54">
         <f>WEEKDAY(C711)</f>
         <v/>
@@ -22091,7 +22091,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="712" hidden="1" ht="15.75" customHeight="1">
+    <row r="712" ht="15.75" customHeight="1">
       <c r="A712" s="54">
         <f>WEEKDAY(C712)</f>
         <v/>
@@ -22122,7 +22122,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="713" hidden="1" ht="15.75" customHeight="1">
+    <row r="713" ht="15.75" customHeight="1">
       <c r="A713" s="54">
         <f>WEEKDAY(C713)</f>
         <v/>
@@ -22153,7 +22153,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="714" hidden="1" ht="15.75" customHeight="1">
+    <row r="714" ht="15.75" customHeight="1">
       <c r="A714" s="54">
         <f>WEEKDAY(C714)</f>
         <v/>
@@ -22184,7 +22184,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="715" hidden="1" ht="15.75" customHeight="1">
+    <row r="715" ht="15.75" customHeight="1">
       <c r="A715" s="54">
         <f>WEEKDAY(C715)</f>
         <v/>
@@ -22215,7 +22215,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="716" hidden="1" ht="15.75" customHeight="1">
+    <row r="716" ht="15.75" customHeight="1">
       <c r="A716" s="54">
         <f>WEEKDAY(C716)</f>
         <v/>
@@ -22246,7 +22246,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="717" hidden="1" ht="15.75" customHeight="1">
+    <row r="717" ht="15.75" customHeight="1">
       <c r="A717" s="54">
         <f>WEEKDAY(C717)</f>
         <v/>
@@ -22277,7 +22277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="718" hidden="1" ht="15.75" customHeight="1">
+    <row r="718" ht="15.75" customHeight="1">
       <c r="A718" s="54">
         <f>WEEKDAY(C718)</f>
         <v/>
@@ -22308,7 +22308,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="719" hidden="1" ht="15.75" customHeight="1">
+    <row r="719" ht="15.75" customHeight="1">
       <c r="A719" s="54">
         <f>WEEKDAY(C719)</f>
         <v/>
@@ -22339,7 +22339,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="720" hidden="1" ht="15.75" customHeight="1">
+    <row r="720" ht="15.75" customHeight="1">
       <c r="A720" s="54">
         <f>WEEKDAY(C720)</f>
         <v/>
@@ -22370,7 +22370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="721" hidden="1" ht="15.75" customHeight="1">
+    <row r="721" ht="15.75" customHeight="1">
       <c r="A721" s="54">
         <f>WEEKDAY(C721)</f>
         <v/>
@@ -22401,7 +22401,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="722" hidden="1" ht="15.75" customHeight="1">
+    <row r="722" ht="15.75" customHeight="1">
       <c r="A722" s="54">
         <f>WEEKDAY(C722)</f>
         <v/>
@@ -22432,7 +22432,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="723" hidden="1" ht="15.75" customHeight="1">
+    <row r="723" ht="15.75" customHeight="1">
       <c r="A723" s="54">
         <f>WEEKDAY(C723)</f>
         <v/>
@@ -22463,7 +22463,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="724" hidden="1" ht="15.75" customHeight="1">
+    <row r="724" ht="15.75" customHeight="1">
       <c r="A724" s="54">
         <f>WEEKDAY(C724)</f>
         <v/>
@@ -22490,7 +22490,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="725" hidden="1" ht="15.75" customHeight="1">
+    <row r="725" ht="15.75" customHeight="1">
       <c r="A725" s="54">
         <f>WEEKDAY(C725)</f>
         <v/>
@@ -22521,7 +22521,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="726" hidden="1" ht="15.75" customHeight="1">
+    <row r="726" ht="15.75" customHeight="1">
       <c r="A726" s="54">
         <f>WEEKDAY(C726)</f>
         <v/>
@@ -22548,7 +22548,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="727" hidden="1" ht="15.75" customHeight="1">
+    <row r="727" ht="15.75" customHeight="1">
       <c r="A727" s="54">
         <f>WEEKDAY(C727)</f>
         <v/>
@@ -22579,7 +22579,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="728" hidden="1" ht="15.75" customHeight="1">
+    <row r="728" ht="15.75" customHeight="1">
       <c r="A728" s="54">
         <f>WEEKDAY(C728)</f>
         <v/>
@@ -22610,7 +22610,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="729" hidden="1" ht="15.75" customHeight="1">
+    <row r="729" ht="15.75" customHeight="1">
       <c r="A729" s="54">
         <f>WEEKDAY(C729)</f>
         <v/>
@@ -22641,7 +22641,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="730" hidden="1" ht="15.75" customHeight="1">
+    <row r="730" ht="15.75" customHeight="1">
       <c r="A730" s="54">
         <f>WEEKDAY(C730)</f>
         <v/>
@@ -22672,7 +22672,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="731" hidden="1" ht="15.75" customHeight="1">
+    <row r="731" ht="15.75" customHeight="1">
       <c r="A731" s="54">
         <f>WEEKDAY(C731)</f>
         <v/>
@@ -22703,7 +22703,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="732" hidden="1" ht="15.75" customHeight="1">
+    <row r="732" ht="15.75" customHeight="1">
       <c r="A732" s="54">
         <f>WEEKDAY(C732)</f>
         <v/>
@@ -22730,7 +22730,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="733" hidden="1" ht="15.75" customHeight="1">
+    <row r="733" ht="15.75" customHeight="1">
       <c r="A733" s="54">
         <f>WEEKDAY(C733)</f>
         <v/>
@@ -22761,7 +22761,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="734" hidden="1" ht="15.75" customHeight="1">
+    <row r="734" ht="15.75" customHeight="1">
       <c r="A734" s="54">
         <f>WEEKDAY(C734)</f>
         <v/>
@@ -22792,7 +22792,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="735" hidden="1" ht="15.75" customHeight="1">
+    <row r="735" ht="15.75" customHeight="1">
       <c r="A735" s="54">
         <f>WEEKDAY(C735)</f>
         <v/>
@@ -22823,7 +22823,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="736" hidden="1" ht="15.75" customHeight="1">
+    <row r="736" ht="15.75" customHeight="1">
       <c r="A736" s="54">
         <f>WEEKDAY(C736)</f>
         <v/>
@@ -22854,7 +22854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="737" hidden="1" ht="15.75" customHeight="1">
+    <row r="737" ht="15.75" customHeight="1">
       <c r="A737" s="54">
         <f>WEEKDAY(C737)</f>
         <v/>
@@ -22885,7 +22885,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="738" hidden="1" ht="15.75" customHeight="1">
+    <row r="738" ht="15.75" customHeight="1">
       <c r="A738" s="54">
         <f>WEEKDAY(C738)</f>
         <v/>
@@ -22916,7 +22916,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="739" hidden="1" ht="15.75" customHeight="1">
+    <row r="739" ht="15.75" customHeight="1">
       <c r="A739" s="54">
         <f>WEEKDAY(C739)</f>
         <v/>
@@ -22947,7 +22947,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="740" hidden="1" ht="15.75" customHeight="1">
+    <row r="740" ht="15.75" customHeight="1">
       <c r="A740" s="54">
         <f>WEEKDAY(C740)</f>
         <v/>
@@ -22978,7 +22978,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="741" hidden="1" ht="15.75" customHeight="1">
+    <row r="741" ht="15.75" customHeight="1">
       <c r="A741" s="54">
         <f>WEEKDAY(C741)</f>
         <v/>
@@ -23009,7 +23009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="742" hidden="1" ht="15.75" customHeight="1">
+    <row r="742" ht="15.75" customHeight="1">
       <c r="A742" s="54">
         <f>WEEKDAY(C742)</f>
         <v/>
@@ -23040,7 +23040,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="743" hidden="1" ht="15.75" customHeight="1">
+    <row r="743" ht="15.75" customHeight="1">
       <c r="A743" s="54">
         <f>WEEKDAY(C743)</f>
         <v/>
@@ -23071,7 +23071,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="744" hidden="1" ht="15.75" customHeight="1">
+    <row r="744" ht="15.75" customHeight="1">
       <c r="A744" s="54">
         <f>WEEKDAY(C744)</f>
         <v/>
@@ -23102,7 +23102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="745" hidden="1" ht="15.75" customHeight="1">
+    <row r="745" ht="15.75" customHeight="1">
       <c r="A745" s="54">
         <f>WEEKDAY(C745)</f>
         <v/>
@@ -23133,7 +23133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="746" hidden="1" ht="15.75" customHeight="1">
+    <row r="746" ht="15.75" customHeight="1">
       <c r="A746" s="54">
         <f>WEEKDAY(C746)</f>
         <v/>
@@ -23195,7 +23195,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="748" hidden="1" ht="15.75" customHeight="1">
+    <row r="748" ht="15.75" customHeight="1">
       <c r="A748" s="54">
         <f>WEEKDAY(C748)</f>
         <v/>
@@ -23226,7 +23226,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="749" hidden="1" ht="15.75" customHeight="1">
+    <row r="749" ht="15.75" customHeight="1">
       <c r="A749" s="54">
         <f>WEEKDAY(C749)</f>
         <v/>
@@ -23257,7 +23257,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="750" hidden="1" ht="15.75" customHeight="1">
+    <row r="750" ht="15.75" customHeight="1">
       <c r="A750" s="54">
         <f>WEEKDAY(C750)</f>
         <v/>
@@ -23288,7 +23288,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="751" hidden="1" ht="15.75" customHeight="1">
+    <row r="751" ht="15.75" customHeight="1">
       <c r="A751" s="54">
         <f>WEEKDAY(C751)</f>
         <v/>
@@ -23319,7 +23319,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="752" hidden="1" ht="15.75" customHeight="1">
+    <row r="752" ht="15.75" customHeight="1">
       <c r="A752" s="54">
         <f>WEEKDAY(C752)</f>
         <v/>
@@ -23350,7 +23350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="753" hidden="1" ht="15.75" customHeight="1">
+    <row r="753" ht="15.75" customHeight="1">
       <c r="A753" s="54">
         <f>WEEKDAY(C753)</f>
         <v/>
@@ -23381,7 +23381,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="754" hidden="1" ht="15.75" customHeight="1">
+    <row r="754" ht="15.75" customHeight="1">
       <c r="A754" s="54">
         <f>WEEKDAY(C754)</f>
         <v/>
@@ -23412,7 +23412,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="755" hidden="1" ht="15.75" customHeight="1">
+    <row r="755" ht="15.75" customHeight="1">
       <c r="A755" s="54">
         <f>WEEKDAY(C755)</f>
         <v/>
@@ -23443,7 +23443,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="756" hidden="1" ht="15.75" customHeight="1">
+    <row r="756" ht="15.75" customHeight="1">
       <c r="A756" s="54">
         <f>WEEKDAY(C756)</f>
         <v/>
@@ -23474,7 +23474,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="757" hidden="1" ht="15.75" customHeight="1">
+    <row r="757" ht="15.75" customHeight="1">
       <c r="A757" s="54">
         <f>WEEKDAY(C757)</f>
         <v/>
@@ -23505,7 +23505,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="758" hidden="1" ht="15.75" customHeight="1">
+    <row r="758" ht="15.75" customHeight="1">
       <c r="A758" s="54">
         <f>WEEKDAY(C758)</f>
         <v/>
@@ -23536,7 +23536,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="759" hidden="1" ht="15.75" customHeight="1">
+    <row r="759" ht="15.75" customHeight="1">
       <c r="A759" s="54">
         <f>WEEKDAY(C759)</f>
         <v/>
@@ -23567,7 +23567,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="760" hidden="1" ht="15.75" customHeight="1">
+    <row r="760" ht="15.75" customHeight="1">
       <c r="A760" s="54">
         <f>WEEKDAY(C760)</f>
         <v/>
@@ -23598,7 +23598,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="761" hidden="1" ht="15.75" customHeight="1">
+    <row r="761" ht="15.75" customHeight="1">
       <c r="A761" s="54">
         <f>WEEKDAY(C761)</f>
         <v/>
@@ -23629,7 +23629,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="762" hidden="1" ht="15.75" customHeight="1">
+    <row r="762" ht="15.75" customHeight="1">
       <c r="A762" s="54">
         <f>WEEKDAY(C762)</f>
         <v/>
@@ -23660,7 +23660,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="763" hidden="1" ht="15.75" customHeight="1">
+    <row r="763" ht="15.75" customHeight="1">
       <c r="A763" s="54">
         <f>WEEKDAY(C763)</f>
         <v/>
@@ -23691,7 +23691,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="764" hidden="1" ht="15.75" customHeight="1">
+    <row r="764" ht="15.75" customHeight="1">
       <c r="A764" s="54">
         <f>WEEKDAY(C764)</f>
         <v/>
@@ -23722,7 +23722,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="765" hidden="1" ht="15.75" customHeight="1">
+    <row r="765" ht="15.75" customHeight="1">
       <c r="A765" s="54">
         <f>WEEKDAY(C765)</f>
         <v/>
@@ -23753,7 +23753,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="766" hidden="1" ht="15.75" customHeight="1">
+    <row r="766" ht="15.75" customHeight="1">
       <c r="A766" s="54">
         <f>WEEKDAY(C766)</f>
         <v/>
@@ -23784,7 +23784,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="767" hidden="1" ht="15.75" customHeight="1">
+    <row r="767" ht="15.75" customHeight="1">
       <c r="A767" s="54">
         <f>WEEKDAY(C767)</f>
         <v/>
@@ -23815,7 +23815,7 @@
         <v>5974</v>
       </c>
     </row>
-    <row r="768" hidden="1" ht="15.75" customHeight="1">
+    <row r="768" ht="15.75" customHeight="1">
       <c r="A768" s="54">
         <f>WEEKDAY(C768)</f>
         <v/>
@@ -23846,7 +23846,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="769" hidden="1" ht="15.75" customHeight="1">
+    <row r="769" ht="15.75" customHeight="1">
       <c r="A769" s="54">
         <f>WEEKDAY(C769)</f>
         <v/>
@@ -23877,7 +23877,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="770" hidden="1" ht="15.75" customHeight="1">
+    <row r="770" ht="15.75" customHeight="1">
       <c r="A770" s="54">
         <f>WEEKDAY(C770)</f>
         <v/>
@@ -23908,7 +23908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="771" hidden="1" ht="15.75" customHeight="1">
+    <row r="771" ht="15.75" customHeight="1">
       <c r="A771" s="54">
         <f>WEEKDAY(C771)</f>
         <v/>
@@ -23939,7 +23939,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="772" hidden="1" ht="15.75" customHeight="1">
+    <row r="772" ht="15.75" customHeight="1">
       <c r="A772" s="54">
         <f>WEEKDAY(C772)</f>
         <v/>
@@ -23970,7 +23970,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="773" hidden="1" ht="15.75" customHeight="1">
+    <row r="773" ht="15.75" customHeight="1">
       <c r="A773" s="54">
         <f>WEEKDAY(C773)</f>
         <v/>
@@ -24001,7 +24001,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="774" hidden="1" ht="15.75" customHeight="1">
+    <row r="774" ht="15.75" customHeight="1">
       <c r="A774" s="54">
         <f>WEEKDAY(C774)</f>
         <v/>
@@ -24032,7 +24032,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="775" hidden="1" ht="15.75" customHeight="1">
+    <row r="775" ht="15.75" customHeight="1">
       <c r="A775" s="54">
         <f>WEEKDAY(C775)</f>
         <v/>
@@ -24063,7 +24063,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="776" hidden="1" ht="15.75" customHeight="1">
+    <row r="776" ht="15.75" customHeight="1">
       <c r="A776" s="54">
         <f>WEEKDAY(C776)</f>
         <v/>
@@ -24094,7 +24094,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="777" hidden="1" ht="15.75" customHeight="1">
+    <row r="777" ht="15.75" customHeight="1">
       <c r="A777" s="54">
         <f>WEEKDAY(C777)</f>
         <v/>
@@ -24156,7 +24156,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="779" hidden="1" ht="15.75" customHeight="1">
+    <row r="779" ht="15.75" customHeight="1">
       <c r="A779" s="54">
         <f>WEEKDAY(C779)</f>
         <v/>
@@ -24187,7 +24187,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="780" hidden="1" ht="15.75" customHeight="1">
+    <row r="780" ht="15.75" customHeight="1">
       <c r="A780" s="54">
         <f>WEEKDAY(C780)</f>
         <v/>
@@ -24218,7 +24218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="781" hidden="1" ht="15.75" customHeight="1">
+    <row r="781" ht="15.75" customHeight="1">
       <c r="A781" s="54">
         <f>WEEKDAY(C781)</f>
         <v/>
@@ -24249,7 +24249,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="782" hidden="1" ht="15.75" customHeight="1">
+    <row r="782" ht="15.75" customHeight="1">
       <c r="A782" s="54">
         <f>WEEKDAY(C782)</f>
         <v/>
@@ -24280,7 +24280,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="783" hidden="1" ht="15.75" customHeight="1">
+    <row r="783" ht="15.75" customHeight="1">
       <c r="A783" s="54">
         <f>WEEKDAY(C783)</f>
         <v/>
@@ -24311,7 +24311,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="784" hidden="1" ht="15.75" customHeight="1">
+    <row r="784" ht="15.75" customHeight="1">
       <c r="A784" s="54">
         <f>WEEKDAY(C784)</f>
         <v/>
@@ -24342,7 +24342,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="785" hidden="1" ht="15.75" customHeight="1">
+    <row r="785" ht="15.75" customHeight="1">
       <c r="A785" s="54">
         <f>WEEKDAY(C785)</f>
         <v/>
@@ -24373,7 +24373,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="786" hidden="1" ht="15.75" customHeight="1">
+    <row r="786" ht="15.75" customHeight="1">
       <c r="A786" s="54">
         <f>WEEKDAY(C786)</f>
         <v/>
@@ -24404,7 +24404,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="787" hidden="1" ht="15.75" customHeight="1">
+    <row r="787" ht="15.75" customHeight="1">
       <c r="A787" s="54">
         <f>WEEKDAY(C787)</f>
         <v/>
@@ -24435,7 +24435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="788" hidden="1" ht="15.75" customHeight="1">
+    <row r="788" ht="15.75" customHeight="1">
       <c r="A788" s="54">
         <f>WEEKDAY(C788)</f>
         <v/>
@@ -24466,7 +24466,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="789" hidden="1" ht="15.75" customHeight="1">
+    <row r="789" ht="15.75" customHeight="1">
       <c r="A789" s="54">
         <f>WEEKDAY(C789)</f>
         <v/>
@@ -24497,7 +24497,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="790" hidden="1" ht="15.75" customHeight="1">
+    <row r="790" ht="15.75" customHeight="1">
       <c r="A790" s="54">
         <f>WEEKDAY(C790)</f>
         <v/>
@@ -24528,7 +24528,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="791" hidden="1" ht="15.75" customHeight="1">
+    <row r="791" ht="15.75" customHeight="1">
       <c r="A791" s="54">
         <f>WEEKDAY(C791)</f>
         <v/>
@@ -24559,7 +24559,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="792" hidden="1" ht="15.75" customHeight="1">
+    <row r="792" ht="15.75" customHeight="1">
       <c r="A792" s="54">
         <f>WEEKDAY(C792)</f>
         <v/>
@@ -24590,7 +24590,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="793" hidden="1" ht="15.75" customHeight="1">
+    <row r="793" ht="15.75" customHeight="1">
       <c r="A793" s="54">
         <f>WEEKDAY(C793)</f>
         <v/>
@@ -24621,7 +24621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="794" hidden="1" ht="15.75" customHeight="1">
+    <row r="794" ht="15.75" customHeight="1">
       <c r="A794" s="54">
         <f>WEEKDAY(C794)</f>
         <v/>
@@ -24714,7 +24714,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="797" hidden="1" ht="15.75" customHeight="1">
+    <row r="797" ht="15.75" customHeight="1">
       <c r="A797" s="54">
         <f>WEEKDAY(C797)</f>
         <v/>
@@ -24745,7 +24745,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="798" hidden="1" ht="15.75" customHeight="1">
+    <row r="798" ht="15.75" customHeight="1">
       <c r="A798" s="54">
         <f>WEEKDAY(C798)</f>
         <v/>
@@ -24776,7 +24776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="799" hidden="1" ht="15.75" customHeight="1">
+    <row r="799" ht="15.75" customHeight="1">
       <c r="A799" s="54">
         <f>WEEKDAY(C799)</f>
         <v/>
@@ -24838,7 +24838,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="801" hidden="1" ht="15.75" customHeight="1">
+    <row r="801" ht="15.75" customHeight="1">
       <c r="A801" s="54">
         <f>WEEKDAY(C801)</f>
         <v/>
@@ -24869,7 +24869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="802" hidden="1" ht="15.75" customHeight="1">
+    <row r="802" ht="15.75" customHeight="1">
       <c r="A802" s="54">
         <f>WEEKDAY(C802)</f>
         <v/>
@@ -24931,7 +24931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="804" hidden="1" ht="15.75" customHeight="1">
+    <row r="804" ht="15.75" customHeight="1">
       <c r="A804" s="54">
         <f>WEEKDAY(C804)</f>
         <v/>
@@ -24962,7 +24962,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="805" hidden="1" ht="15.75" customHeight="1">
+    <row r="805" ht="15.75" customHeight="1">
       <c r="A805" s="54">
         <f>WEEKDAY(C805)</f>
         <v/>
@@ -24993,7 +24993,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="806" hidden="1" ht="15.75" customHeight="1">
+    <row r="806" ht="15.75" customHeight="1">
       <c r="A806" s="54">
         <f>WEEKDAY(C806)</f>
         <v/>
@@ -25024,7 +25024,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="807" hidden="1" ht="15.75" customHeight="1">
+    <row r="807" ht="15.75" customHeight="1">
       <c r="A807" s="54">
         <f>WEEKDAY(C807)</f>
         <v/>
@@ -25055,7 +25055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="808" hidden="1" ht="15.75" customHeight="1">
+    <row r="808" ht="15.75" customHeight="1">
       <c r="A808" s="54">
         <f>WEEKDAY(C808)</f>
         <v/>
@@ -25086,7 +25086,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="809" hidden="1" ht="15.75" customHeight="1">
+    <row r="809" ht="15.75" customHeight="1">
       <c r="A809" s="54">
         <f>WEEKDAY(C809)</f>
         <v/>
@@ -25117,7 +25117,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="810" hidden="1" ht="15.75" customHeight="1">
+    <row r="810" ht="15.75" customHeight="1">
       <c r="A810" s="54">
         <f>WEEKDAY(C810)</f>
         <v/>
@@ -25148,7 +25148,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="811" hidden="1" ht="15.75" customHeight="1">
+    <row r="811" ht="15.75" customHeight="1">
       <c r="A811" s="54">
         <f>WEEKDAY(C811)</f>
         <v/>
@@ -25179,7 +25179,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="812" hidden="1" ht="15.75" customHeight="1">
+    <row r="812" ht="15.75" customHeight="1">
       <c r="A812" s="54">
         <f>WEEKDAY(C812)</f>
         <v/>
@@ -25210,7 +25210,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="813" hidden="1" ht="15.75" customHeight="1">
+    <row r="813" ht="15.75" customHeight="1">
       <c r="A813" s="54">
         <f>WEEKDAY(C813)</f>
         <v/>
@@ -25241,7 +25241,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="814" hidden="1" ht="15.75" customHeight="1">
+    <row r="814" ht="15.75" customHeight="1">
       <c r="A814" s="54">
         <f>WEEKDAY(C814)</f>
         <v/>
@@ -25272,7 +25272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="815" hidden="1" ht="15.75" customHeight="1">
+    <row r="815" ht="15.75" customHeight="1">
       <c r="A815" s="54">
         <f>WEEKDAY(C815)</f>
         <v/>
@@ -25303,7 +25303,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="816" hidden="1" ht="15.75" customHeight="1">
+    <row r="816" ht="15.75" customHeight="1">
       <c r="A816" s="54">
         <f>WEEKDAY(C816)</f>
         <v/>
@@ -25334,7 +25334,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="817" hidden="1" ht="15.75" customHeight="1">
+    <row r="817" ht="15.75" customHeight="1">
       <c r="A817" s="54">
         <f>WEEKDAY(C817)</f>
         <v/>
@@ -25365,7 +25365,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="818" hidden="1" ht="15.75" customHeight="1">
+    <row r="818" ht="15.75" customHeight="1">
       <c r="A818" s="54">
         <f>WEEKDAY(C818)</f>
         <v/>
@@ -25396,7 +25396,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="819" hidden="1" ht="15.75" customHeight="1">
+    <row r="819" ht="15.75" customHeight="1">
       <c r="A819" s="54">
         <f>WEEKDAY(C819)</f>
         <v/>
@@ -25427,7 +25427,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="820" hidden="1" ht="15.75" customHeight="1">
+    <row r="820" ht="15.75" customHeight="1">
       <c r="A820" s="54">
         <f>WEEKDAY(C820)</f>
         <v/>
@@ -25458,7 +25458,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="821" hidden="1" ht="15.75" customHeight="1">
+    <row r="821" ht="15.75" customHeight="1">
       <c r="A821" s="54">
         <f>WEEKDAY(C821)</f>
         <v/>
@@ -25489,7 +25489,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="822" hidden="1" ht="15.75" customHeight="1">
+    <row r="822" ht="15.75" customHeight="1">
       <c r="A822" s="54">
         <f>WEEKDAY(C822)</f>
         <v/>
@@ -25520,7 +25520,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="823" hidden="1" ht="15.75" customHeight="1">
+    <row r="823" ht="15.75" customHeight="1">
       <c r="A823" s="54">
         <f>WEEKDAY(C823)</f>
         <v/>
@@ -25551,7 +25551,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="824" hidden="1" ht="15.75" customHeight="1">
+    <row r="824" ht="15.75" customHeight="1">
       <c r="A824" s="54">
         <f>WEEKDAY(C824)</f>
         <v/>
@@ -25582,7 +25582,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="825" hidden="1" ht="15.75" customHeight="1">
+    <row r="825" ht="15.75" customHeight="1">
       <c r="A825" s="54">
         <f>WEEKDAY(C825)</f>
         <v/>
@@ -25613,7 +25613,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="826" hidden="1" ht="15.75" customHeight="1">
+    <row r="826" ht="15.75" customHeight="1">
       <c r="A826" s="54">
         <f>WEEKDAY(C826)</f>
         <v/>
@@ -25644,7 +25644,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="827" hidden="1" ht="15.75" customHeight="1">
+    <row r="827" ht="15.75" customHeight="1">
       <c r="A827" s="54">
         <f>WEEKDAY(C827)</f>
         <v/>
@@ -25675,7 +25675,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="828" hidden="1" ht="15.75" customHeight="1">
+    <row r="828" ht="15.75" customHeight="1">
       <c r="A828" s="54">
         <f>WEEKDAY(C828)</f>
         <v/>
@@ -25706,7 +25706,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="829" hidden="1" ht="15.75" customHeight="1">
+    <row r="829" ht="15.75" customHeight="1">
       <c r="A829" s="54">
         <f>WEEKDAY(C829)</f>
         <v/>
@@ -25737,7 +25737,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="830" hidden="1" ht="15.75" customHeight="1">
+    <row r="830" ht="15.75" customHeight="1">
       <c r="A830" s="54">
         <f>WEEKDAY(C830)</f>
         <v/>
@@ -25768,7 +25768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="831" hidden="1" ht="15.75" customHeight="1">
+    <row r="831" ht="15.75" customHeight="1">
       <c r="A831" s="54">
         <f>WEEKDAY(C831)</f>
         <v/>
@@ -25799,7 +25799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="832" hidden="1" ht="15.75" customHeight="1">
+    <row r="832" ht="15.75" customHeight="1">
       <c r="A832" s="54">
         <f>WEEKDAY(C832)</f>
         <v/>
@@ -25830,7 +25830,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="833" hidden="1" ht="15.75" customHeight="1">
+    <row r="833" ht="15.75" customHeight="1">
       <c r="A833" s="54">
         <f>WEEKDAY(C833)</f>
         <v/>
@@ -25861,7 +25861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="834" hidden="1" ht="15.75" customHeight="1">
+    <row r="834" ht="15.75" customHeight="1">
       <c r="A834" s="54">
         <f>WEEKDAY(C834)</f>
         <v/>
@@ -25892,7 +25892,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="835" hidden="1" ht="15.75" customHeight="1">
+    <row r="835" ht="15.75" customHeight="1">
       <c r="A835" s="54">
         <f>WEEKDAY(C835)</f>
         <v/>
@@ -25923,7 +25923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="836" hidden="1" ht="15.75" customHeight="1">
+    <row r="836" ht="15.75" customHeight="1">
       <c r="A836" s="54">
         <f>WEEKDAY(C836)</f>
         <v/>
@@ -25954,7 +25954,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="837" hidden="1" ht="15.75" customHeight="1">
+    <row r="837" ht="15.75" customHeight="1">
       <c r="A837" s="54">
         <f>WEEKDAY(C837)</f>
         <v/>
@@ -25985,7 +25985,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="838" hidden="1" ht="15.75" customHeight="1">
+    <row r="838" ht="15.75" customHeight="1">
       <c r="A838" s="54">
         <f>WEEKDAY(C838)</f>
         <v/>
@@ -26016,7 +26016,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="839" hidden="1" ht="15.75" customHeight="1">
+    <row r="839" ht="15.75" customHeight="1">
       <c r="A839" s="54">
         <f>WEEKDAY(C839)</f>
         <v/>
@@ -26047,7 +26047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="840" hidden="1" ht="15.75" customHeight="1">
+    <row r="840" ht="15.75" customHeight="1">
       <c r="A840" s="54">
         <f>WEEKDAY(C840)</f>
         <v/>
@@ -26078,7 +26078,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="841" hidden="1" ht="15.75" customHeight="1">
+    <row r="841" ht="15.75" customHeight="1">
       <c r="A841" s="54">
         <f>WEEKDAY(C841)</f>
         <v/>
@@ -26105,7 +26105,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="842" hidden="1" ht="15.75" customHeight="1">
+    <row r="842" ht="15.75" customHeight="1">
       <c r="A842" s="54">
         <f>WEEKDAY(C842)</f>
         <v/>
@@ -26136,7 +26136,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="843" hidden="1" ht="15.75" customHeight="1">
+    <row r="843" ht="15.75" customHeight="1">
       <c r="A843" s="54">
         <f>WEEKDAY(C843)</f>
         <v/>
@@ -26167,7 +26167,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="844" hidden="1" ht="15.75" customHeight="1">
+    <row r="844" ht="15.75" customHeight="1">
       <c r="A844" s="54">
         <f>WEEKDAY(C844)</f>
         <v/>
@@ -26198,7 +26198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="845" hidden="1" ht="15.75" customHeight="1">
+    <row r="845" ht="15.75" customHeight="1">
       <c r="A845" s="54">
         <f>WEEKDAY(C845)</f>
         <v/>
@@ -26229,16 +26229,4515 @@
         <v>120</v>
       </c>
     </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="A846" s="54">
+        <f>WEEKDAY(C846)</f>
+        <v/>
+      </c>
+      <c r="B846" s="54">
+        <f>MONTH(C846)</f>
+        <v/>
+      </c>
+      <c r="C846" s="34" t="n">
+        <v>44774</v>
+      </c>
+      <c r="D846" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E846" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F846" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G846" s="33" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="A847" s="54">
+        <f>WEEKDAY(C847)</f>
+        <v/>
+      </c>
+      <c r="B847" s="54">
+        <f>MONTH(C847)</f>
+        <v/>
+      </c>
+      <c r="C847" s="34" t="n">
+        <v>44774</v>
+      </c>
+      <c r="D847" s="33" t="inlineStr">
+        <is>
+          <t>кфс</t>
+        </is>
+      </c>
+      <c r="E847" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F847" s="33" t="inlineStr">
+        <is>
+          <t>Фаст-Фуд</t>
+        </is>
+      </c>
+      <c r="G847" s="33" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="A848" s="54">
+        <f>WEEKDAY(C848)</f>
+        <v/>
+      </c>
+      <c r="B848" s="54">
+        <f>MONTH(C848)</f>
+        <v/>
+      </c>
+      <c r="C848" s="34" t="n">
+        <v>44774</v>
+      </c>
+      <c r="D848" s="33" t="inlineStr">
+        <is>
+          <t>вода</t>
+        </is>
+      </c>
+      <c r="E848" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F848" s="33" t="inlineStr">
+        <is>
+          <t>Напитки</t>
+        </is>
+      </c>
+      <c r="G848" s="33" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="A849" s="54">
+        <f>WEEKDAY(C849)</f>
+        <v/>
+      </c>
+      <c r="B849" s="54">
+        <f>MONTH(C849)</f>
+        <v/>
+      </c>
+      <c r="C849" s="34" t="n">
+        <v>44774</v>
+      </c>
+      <c r="D849" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E849" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F849" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G849" s="33" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="A850" s="54">
+        <f>WEEKDAY(C850)</f>
+        <v/>
+      </c>
+      <c r="B850" s="54">
+        <f>MONTH(C850)</f>
+        <v/>
+      </c>
+      <c r="C850" s="34" t="n">
+        <v>44774</v>
+      </c>
+      <c r="D850" s="33" t="inlineStr">
+        <is>
+          <t>интернет</t>
+        </is>
+      </c>
+      <c r="E850" s="33" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="F850" s="33" t="inlineStr">
+        <is>
+          <t>Интернет</t>
+        </is>
+      </c>
+      <c r="G850" s="33" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="A851" s="54">
+        <f>WEEKDAY(C851)</f>
+        <v/>
+      </c>
+      <c r="B851" s="54">
+        <f>MONTH(C851)</f>
+        <v/>
+      </c>
+      <c r="C851" s="34" t="n">
+        <v>44774</v>
+      </c>
+      <c r="D851" s="33" t="inlineStr">
+        <is>
+          <t>пельмени</t>
+        </is>
+      </c>
+      <c r="E851" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F851" s="33" t="inlineStr">
+        <is>
+          <t>мясное</t>
+        </is>
+      </c>
+      <c r="G851" s="33" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="A852" s="54">
+        <f>WEEKDAY(C852)</f>
+        <v/>
+      </c>
+      <c r="B852" s="54">
+        <f>MONTH(C852)</f>
+        <v/>
+      </c>
+      <c r="C852" s="34" t="n">
+        <v>44774</v>
+      </c>
+      <c r="D852" s="33" t="inlineStr">
+        <is>
+          <t>спагетти</t>
+        </is>
+      </c>
+      <c r="E852" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F852" s="33" t="inlineStr">
+        <is>
+          <t>мучное</t>
+        </is>
+      </c>
+      <c r="G852" s="33" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="A853" s="54">
+        <f>WEEKDAY(C853)</f>
+        <v/>
+      </c>
+      <c r="B853" s="54">
+        <f>MONTH(C853)</f>
+        <v/>
+      </c>
+      <c r="C853" s="34" t="n">
+        <v>44774</v>
+      </c>
+      <c r="D853" s="33" t="inlineStr">
+        <is>
+          <t>котлеты</t>
+        </is>
+      </c>
+      <c r="E853" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F853" s="33" t="inlineStr">
+        <is>
+          <t>мясное</t>
+        </is>
+      </c>
+      <c r="G853" s="33" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="A854" s="54">
+        <f>WEEKDAY(C854)</f>
+        <v/>
+      </c>
+      <c r="B854" s="54">
+        <f>MONTH(C854)</f>
+        <v/>
+      </c>
+      <c r="C854" s="34" t="n">
+        <v>44775</v>
+      </c>
+      <c r="D854" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E854" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F854" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G854" s="33" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="A855" s="54">
+        <f>WEEKDAY(C855)</f>
+        <v/>
+      </c>
+      <c r="B855" s="54">
+        <f>MONTH(C855)</f>
+        <v/>
+      </c>
+      <c r="C855" s="34" t="n">
+        <v>44775</v>
+      </c>
+      <c r="D855" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E855" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F855" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G855" s="33" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="A856" s="54">
+        <f>WEEKDAY(C856)</f>
+        <v/>
+      </c>
+      <c r="B856" s="54">
+        <f>MONTH(C856)</f>
+        <v/>
+      </c>
+      <c r="C856" s="34" t="n">
+        <v>44775</v>
+      </c>
+      <c r="D856" s="33" t="inlineStr">
+        <is>
+          <t>обед работа</t>
+        </is>
+      </c>
+      <c r="E856" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F856" s="33" t="inlineStr">
+        <is>
+          <t>Обед (работа)</t>
+        </is>
+      </c>
+      <c r="G856" s="33" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="A857" s="54">
+        <f>WEEKDAY(C857)</f>
+        <v/>
+      </c>
+      <c r="B857" s="54">
+        <f>MONTH(C857)</f>
+        <v/>
+      </c>
+      <c r="C857" s="34" t="n">
+        <v>44775</v>
+      </c>
+      <c r="D857" s="33" t="inlineStr">
+        <is>
+          <t>творожок</t>
+        </is>
+      </c>
+      <c r="E857" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F857" s="33" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="G857" s="33" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="A858" s="54">
+        <f>WEEKDAY(C858)</f>
+        <v/>
+      </c>
+      <c r="B858" s="54">
+        <f>MONTH(C858)</f>
+        <v/>
+      </c>
+      <c r="C858" s="34" t="n">
+        <v>44776</v>
+      </c>
+      <c r="D858" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E858" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F858" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G858" s="33" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="A859" s="54">
+        <f>WEEKDAY(C859)</f>
+        <v/>
+      </c>
+      <c r="B859" s="54">
+        <f>MONTH(C859)</f>
+        <v/>
+      </c>
+      <c r="C859" s="34" t="n">
+        <v>44776</v>
+      </c>
+      <c r="D859" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E859" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F859" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G859" s="33" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="A860" s="54">
+        <f>WEEKDAY(C860)</f>
+        <v/>
+      </c>
+      <c r="B860" s="54">
+        <f>MONTH(C860)</f>
+        <v/>
+      </c>
+      <c r="C860" s="34" t="n">
+        <v>44776</v>
+      </c>
+      <c r="D860" s="33" t="inlineStr">
+        <is>
+          <t>трихолог</t>
+        </is>
+      </c>
+      <c r="E860" s="33" t="inlineStr">
+        <is>
+          <t>Здоровье, красота, гигиена</t>
+        </is>
+      </c>
+      <c r="F860" s="33" t="n"/>
+      <c r="G860" s="33" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="A861" s="54">
+        <f>WEEKDAY(C861)</f>
+        <v/>
+      </c>
+      <c r="B861" s="54">
+        <f>MONTH(C861)</f>
+        <v/>
+      </c>
+      <c r="C861" s="34" t="n">
+        <v>44776</v>
+      </c>
+      <c r="D861" s="33" t="inlineStr">
+        <is>
+          <t>лекарства</t>
+        </is>
+      </c>
+      <c r="E861" s="33" t="inlineStr">
+        <is>
+          <t>Здоровье, красота, гигиена</t>
+        </is>
+      </c>
+      <c r="F861" s="33" t="n"/>
+      <c r="G861" s="33" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="A862" s="54">
+        <f>WEEKDAY(C862)</f>
+        <v/>
+      </c>
+      <c r="B862" s="54">
+        <f>MONTH(C862)</f>
+        <v/>
+      </c>
+      <c r="C862" s="34" t="n">
+        <v>44776</v>
+      </c>
+      <c r="D862" s="33" t="inlineStr">
+        <is>
+          <t>масло</t>
+        </is>
+      </c>
+      <c r="E862" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F862" s="33" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
+      <c r="G862" s="33" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="A863" s="54">
+        <f>WEEKDAY(C863)</f>
+        <v/>
+      </c>
+      <c r="B863" s="54">
+        <f>MONTH(C863)</f>
+        <v/>
+      </c>
+      <c r="C863" s="34" t="n">
+        <v>44776</v>
+      </c>
+      <c r="D863" s="33" t="inlineStr">
+        <is>
+          <t>рис</t>
+        </is>
+      </c>
+      <c r="E863" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F863" s="33" t="inlineStr">
+        <is>
+          <t>крупы</t>
+        </is>
+      </c>
+      <c r="G863" s="33" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="A864" s="54">
+        <f>WEEKDAY(C864)</f>
+        <v/>
+      </c>
+      <c r="B864" s="54">
+        <f>MONTH(C864)</f>
+        <v/>
+      </c>
+      <c r="C864" s="34" t="n">
+        <v>44776</v>
+      </c>
+      <c r="D864" s="33" t="inlineStr">
+        <is>
+          <t>чипсы</t>
+        </is>
+      </c>
+      <c r="E864" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F864" s="33" t="inlineStr">
+        <is>
+          <t>Сладости/Напитки</t>
+        </is>
+      </c>
+      <c r="G864" s="33" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="A865" s="54">
+        <f>WEEKDAY(C865)</f>
+        <v/>
+      </c>
+      <c r="B865" s="54">
+        <f>MONTH(C865)</f>
+        <v/>
+      </c>
+      <c r="C865" s="34" t="n">
+        <v>44776</v>
+      </c>
+      <c r="D865" s="33" t="inlineStr">
+        <is>
+          <t>подарок денису</t>
+        </is>
+      </c>
+      <c r="E865" s="33" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
+      <c r="F865" s="33" t="inlineStr">
+        <is>
+          <t>Подарки</t>
+        </is>
+      </c>
+      <c r="G865" s="33" t="n">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="A866" s="54">
+        <f>WEEKDAY(C866)</f>
+        <v/>
+      </c>
+      <c r="B866" s="54">
+        <f>MONTH(C866)</f>
+        <v/>
+      </c>
+      <c r="C866" s="34" t="n">
+        <v>44776</v>
+      </c>
+      <c r="D866" s="33" t="inlineStr">
+        <is>
+          <t>аренда квартиры</t>
+        </is>
+      </c>
+      <c r="E866" s="33" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="F866" s="33" t="inlineStr">
+        <is>
+          <t>аренда</t>
+        </is>
+      </c>
+      <c r="G866" s="33" t="n">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="A867" s="54">
+        <f>WEEKDAY(C867)</f>
+        <v/>
+      </c>
+      <c r="B867" s="54">
+        <f>MONTH(C867)</f>
+        <v/>
+      </c>
+      <c r="C867" s="34" t="n">
+        <v>44777</v>
+      </c>
+      <c r="D867" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E867" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F867" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G867" s="33" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="A868" s="54">
+        <f>WEEKDAY(C868)</f>
+        <v/>
+      </c>
+      <c r="B868" s="54">
+        <f>MONTH(C868)</f>
+        <v/>
+      </c>
+      <c r="C868" s="34" t="n">
+        <v>44777</v>
+      </c>
+      <c r="D868" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E868" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F868" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G868" s="33" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="A869" s="54">
+        <f>WEEKDAY(C869)</f>
+        <v/>
+      </c>
+      <c r="B869" s="54">
+        <f>MONTH(C869)</f>
+        <v/>
+      </c>
+      <c r="C869" s="34" t="n">
+        <v>44777</v>
+      </c>
+      <c r="D869" s="33" t="inlineStr">
+        <is>
+          <t>книга</t>
+        </is>
+      </c>
+      <c r="E869" s="33" t="inlineStr">
+        <is>
+          <t>Творчество, книги, обучение</t>
+        </is>
+      </c>
+      <c r="F869" s="33" t="n"/>
+      <c r="G869" s="33" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="A870" s="54">
+        <f>WEEKDAY(C870)</f>
+        <v/>
+      </c>
+      <c r="B870" s="54">
+        <f>MONTH(C870)</f>
+        <v/>
+      </c>
+      <c r="C870" s="34" t="n">
+        <v>44777</v>
+      </c>
+      <c r="D870" s="33" t="inlineStr">
+        <is>
+          <t>энергос</t>
+        </is>
+      </c>
+      <c r="E870" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F870" s="33" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="G870" s="33" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="A871" s="54">
+        <f>WEEKDAY(C871)</f>
+        <v/>
+      </c>
+      <c r="B871" s="54">
+        <f>MONTH(C871)</f>
+        <v/>
+      </c>
+      <c r="C871" s="34" t="n">
+        <v>44777</v>
+      </c>
+      <c r="D871" s="33" t="inlineStr">
+        <is>
+          <t>сырок</t>
+        </is>
+      </c>
+      <c r="E871" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F871" s="33" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="G871" s="33" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="A872" s="54">
+        <f>WEEKDAY(C872)</f>
+        <v/>
+      </c>
+      <c r="B872" s="54">
+        <f>MONTH(C872)</f>
+        <v/>
+      </c>
+      <c r="C872" s="34" t="n">
+        <v>44777</v>
+      </c>
+      <c r="D872" s="33" t="inlineStr">
+        <is>
+          <t>бананы</t>
+        </is>
+      </c>
+      <c r="E872" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F872" s="33" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="G872" s="33" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="A873" s="54">
+        <f>WEEKDAY(C873)</f>
+        <v/>
+      </c>
+      <c r="B873" s="54">
+        <f>MONTH(C873)</f>
+        <v/>
+      </c>
+      <c r="C873" s="34" t="n">
+        <v>44778</v>
+      </c>
+      <c r="D873" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E873" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F873" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G873" s="33" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="A874" s="54">
+        <f>WEEKDAY(C874)</f>
+        <v/>
+      </c>
+      <c r="B874" s="54">
+        <f>MONTH(C874)</f>
+        <v/>
+      </c>
+      <c r="C874" s="34" t="n">
+        <v>44778</v>
+      </c>
+      <c r="D874" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E874" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F874" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G874" s="33" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="A875" s="54">
+        <f>WEEKDAY(C875)</f>
+        <v/>
+      </c>
+      <c r="B875" s="54">
+        <f>MONTH(C875)</f>
+        <v/>
+      </c>
+      <c r="C875" s="34" t="n">
+        <v>44778</v>
+      </c>
+      <c r="D875" s="33" t="inlineStr">
+        <is>
+          <t>подарок</t>
+        </is>
+      </c>
+      <c r="E875" s="33" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
+      <c r="F875" s="33" t="inlineStr">
+        <is>
+          <t>Подарки</t>
+        </is>
+      </c>
+      <c r="G875" s="33" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="A876" s="54">
+        <f>WEEKDAY(C876)</f>
+        <v/>
+      </c>
+      <c r="B876" s="54">
+        <f>MONTH(C876)</f>
+        <v/>
+      </c>
+      <c r="C876" s="34" t="n">
+        <v>44778</v>
+      </c>
+      <c r="D876" s="33" t="inlineStr">
+        <is>
+          <t>макдоналдс</t>
+        </is>
+      </c>
+      <c r="E876" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F876" s="33" t="inlineStr">
+        <is>
+          <t>Фаст-Фуд</t>
+        </is>
+      </c>
+      <c r="G876" s="33" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="A877" s="54">
+        <f>WEEKDAY(C877)</f>
+        <v/>
+      </c>
+      <c r="B877" s="54">
+        <f>MONTH(C877)</f>
+        <v/>
+      </c>
+      <c r="C877" s="34" t="n">
+        <v>44778</v>
+      </c>
+      <c r="D877" s="33" t="inlineStr">
+        <is>
+          <t>квас</t>
+        </is>
+      </c>
+      <c r="E877" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F877" s="33" t="inlineStr">
+        <is>
+          <t>Напитки</t>
+        </is>
+      </c>
+      <c r="G877" s="33" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="A878" s="54">
+        <f>WEEKDAY(C878)</f>
+        <v/>
+      </c>
+      <c r="B878" s="54">
+        <f>MONTH(C878)</f>
+        <v/>
+      </c>
+      <c r="C878" s="34" t="n">
+        <v>44778</v>
+      </c>
+      <c r="D878" s="33" t="inlineStr">
+        <is>
+          <t>бар</t>
+        </is>
+      </c>
+      <c r="E878" s="33" t="inlineStr">
+        <is>
+          <t>Рестораны</t>
+        </is>
+      </c>
+      <c r="F878" s="33" t="inlineStr">
+        <is>
+          <t>бар</t>
+        </is>
+      </c>
+      <c r="G878" s="33" t="n">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="A879" s="54">
+        <f>WEEKDAY(C879)</f>
+        <v/>
+      </c>
+      <c r="B879" s="54">
+        <f>MONTH(C879)</f>
+        <v/>
+      </c>
+      <c r="C879" s="34" t="n">
+        <v>44779</v>
+      </c>
+      <c r="D879" s="33" t="inlineStr">
+        <is>
+          <t>авокадо</t>
+        </is>
+      </c>
+      <c r="E879" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F879" s="33" t="inlineStr">
+        <is>
+          <t>фрукты</t>
+        </is>
+      </c>
+      <c r="G879" s="33" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="A880" s="54">
+        <f>WEEKDAY(C880)</f>
+        <v/>
+      </c>
+      <c r="B880" s="54">
+        <f>MONTH(C880)</f>
+        <v/>
+      </c>
+      <c r="C880" s="34" t="n">
+        <v>44779</v>
+      </c>
+      <c r="D880" s="33" t="inlineStr">
+        <is>
+          <t>сырки</t>
+        </is>
+      </c>
+      <c r="E880" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F880" s="33" t="inlineStr">
+        <is>
+          <t>молочка</t>
+        </is>
+      </c>
+      <c r="G880" s="33" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="A881" s="54">
+        <f>WEEKDAY(C881)</f>
+        <v/>
+      </c>
+      <c r="B881" s="54">
+        <f>MONTH(C881)</f>
+        <v/>
+      </c>
+      <c r="C881" s="34" t="n">
+        <v>44779</v>
+      </c>
+      <c r="D881" s="33" t="inlineStr">
+        <is>
+          <t>пельмени</t>
+        </is>
+      </c>
+      <c r="E881" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F881" s="33" t="inlineStr">
+        <is>
+          <t>мясное</t>
+        </is>
+      </c>
+      <c r="G881" s="33" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="A882" s="54">
+        <f>WEEKDAY(C882)</f>
+        <v/>
+      </c>
+      <c r="B882" s="54">
+        <f>MONTH(C882)</f>
+        <v/>
+      </c>
+      <c r="C882" s="34" t="n">
+        <v>44779</v>
+      </c>
+      <c r="D882" s="33" t="inlineStr">
+        <is>
+          <t>яйца</t>
+        </is>
+      </c>
+      <c r="E882" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F882" s="33" t="inlineStr">
+        <is>
+          <t>мясное</t>
+        </is>
+      </c>
+      <c r="G882" s="33" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="A883" s="54">
+        <f>WEEKDAY(C883)</f>
+        <v/>
+      </c>
+      <c r="B883" s="54">
+        <f>MONTH(C883)</f>
+        <v/>
+      </c>
+      <c r="C883" s="34" t="n">
+        <v>44779</v>
+      </c>
+      <c r="D883" s="33" t="inlineStr">
+        <is>
+          <t>соус</t>
+        </is>
+      </c>
+      <c r="E883" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F883" s="33" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
+      <c r="G883" s="33" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="A884" s="54">
+        <f>WEEKDAY(C884)</f>
+        <v/>
+      </c>
+      <c r="B884" s="54">
+        <f>MONTH(C884)</f>
+        <v/>
+      </c>
+      <c r="C884" s="34" t="n">
+        <v>44779</v>
+      </c>
+      <c r="D884" s="33" t="inlineStr">
+        <is>
+          <t>свинина</t>
+        </is>
+      </c>
+      <c r="E884" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F884" s="33" t="inlineStr">
+        <is>
+          <t>мясное</t>
+        </is>
+      </c>
+      <c r="G884" s="33" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="A885" s="54">
+        <f>WEEKDAY(C885)</f>
+        <v/>
+      </c>
+      <c r="B885" s="54">
+        <f>MONTH(C885)</f>
+        <v/>
+      </c>
+      <c r="C885" s="34" t="n">
+        <v>44779</v>
+      </c>
+      <c r="D885" s="33" t="inlineStr">
+        <is>
+          <t>грибы</t>
+        </is>
+      </c>
+      <c r="E885" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F885" s="33" t="inlineStr">
+        <is>
+          <t>овощи</t>
+        </is>
+      </c>
+      <c r="G885" s="33" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="A886" s="54">
+        <f>WEEKDAY(C886)</f>
+        <v/>
+      </c>
+      <c r="B886" s="54">
+        <f>MONTH(C886)</f>
+        <v/>
+      </c>
+      <c r="C886" s="34" t="n">
+        <v>44779</v>
+      </c>
+      <c r="D886" s="33" t="inlineStr">
+        <is>
+          <t>подарочный пакет</t>
+        </is>
+      </c>
+      <c r="E886" s="33" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
+      <c r="F886" s="33" t="inlineStr">
+        <is>
+          <t>остальное</t>
+        </is>
+      </c>
+      <c r="G886" s="33" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="A887" s="54">
+        <f>WEEKDAY(C887)</f>
+        <v/>
+      </c>
+      <c r="B887" s="54">
+        <f>MONTH(C887)</f>
+        <v/>
+      </c>
+      <c r="C887" s="34" t="n">
+        <v>44779</v>
+      </c>
+      <c r="D887" s="33" t="inlineStr">
+        <is>
+          <t>овощи</t>
+        </is>
+      </c>
+      <c r="E887" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F887" s="33" t="inlineStr">
+        <is>
+          <t>овощи</t>
+        </is>
+      </c>
+      <c r="G887" s="33" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="A888" s="54">
+        <f>WEEKDAY(C888)</f>
+        <v/>
+      </c>
+      <c r="B888" s="54">
+        <f>MONTH(C888)</f>
+        <v/>
+      </c>
+      <c r="C888" s="34" t="n">
+        <v>44780</v>
+      </c>
+      <c r="D888" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E888" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F888" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G888" s="33" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="A889" s="54">
+        <f>WEEKDAY(C889)</f>
+        <v/>
+      </c>
+      <c r="B889" s="54">
+        <f>MONTH(C889)</f>
+        <v/>
+      </c>
+      <c r="C889" s="34" t="n">
+        <v>44780</v>
+      </c>
+      <c r="D889" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E889" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F889" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G889" s="33" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="A890" s="54">
+        <f>WEEKDAY(C890)</f>
+        <v/>
+      </c>
+      <c r="B890" s="54">
+        <f>MONTH(C890)</f>
+        <v/>
+      </c>
+      <c r="C890" s="34" t="n">
+        <v>44780</v>
+      </c>
+      <c r="D890" s="33" t="inlineStr">
+        <is>
+          <t>обед работа</t>
+        </is>
+      </c>
+      <c r="E890" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F890" s="33" t="inlineStr">
+        <is>
+          <t>Обед (работа)</t>
+        </is>
+      </c>
+      <c r="G890" s="33" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="A891" s="54">
+        <f>WEEKDAY(C891)</f>
+        <v/>
+      </c>
+      <c r="B891" s="54">
+        <f>MONTH(C891)</f>
+        <v/>
+      </c>
+      <c r="C891" s="34" t="n">
+        <v>44781</v>
+      </c>
+      <c r="D891" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E891" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F891" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G891" s="33" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="A892" s="54">
+        <f>WEEKDAY(C892)</f>
+        <v/>
+      </c>
+      <c r="B892" s="54">
+        <f>MONTH(C892)</f>
+        <v/>
+      </c>
+      <c r="C892" s="34" t="n">
+        <v>44781</v>
+      </c>
+      <c r="D892" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E892" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F892" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G892" s="33" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="A893" s="54">
+        <f>WEEKDAY(C893)</f>
+        <v/>
+      </c>
+      <c r="B893" s="54">
+        <f>MONTH(C893)</f>
+        <v/>
+      </c>
+      <c r="C893" s="34" t="n">
+        <v>44781</v>
+      </c>
+      <c r="D893" s="33" t="inlineStr">
+        <is>
+          <t>молочный коктейль</t>
+        </is>
+      </c>
+      <c r="E893" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F893" s="33" t="inlineStr">
+        <is>
+          <t>Напитки</t>
+        </is>
+      </c>
+      <c r="G893" s="33" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="A894" s="54">
+        <f>WEEKDAY(C894)</f>
+        <v/>
+      </c>
+      <c r="B894" s="54">
+        <f>MONTH(C894)</f>
+        <v/>
+      </c>
+      <c r="C894" s="34" t="n">
+        <v>44782</v>
+      </c>
+      <c r="D894" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E894" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F894" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G894" s="33" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="A895" s="54">
+        <f>WEEKDAY(C895)</f>
+        <v/>
+      </c>
+      <c r="B895" s="54">
+        <f>MONTH(C895)</f>
+        <v/>
+      </c>
+      <c r="C895" s="34" t="n">
+        <v>44782</v>
+      </c>
+      <c r="D895" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E895" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F895" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G895" s="33" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="A896" s="54">
+        <f>WEEKDAY(C896)</f>
+        <v/>
+      </c>
+      <c r="B896" s="54">
+        <f>MONTH(C896)</f>
+        <v/>
+      </c>
+      <c r="C896" s="34" t="n">
+        <v>44782</v>
+      </c>
+      <c r="D896" s="33" t="inlineStr">
+        <is>
+          <t>обед работа</t>
+        </is>
+      </c>
+      <c r="E896" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F896" s="33" t="inlineStr">
+        <is>
+          <t>Обед (работа)</t>
+        </is>
+      </c>
+      <c r="G896" s="33" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="A897" s="54">
+        <f>WEEKDAY(C897)</f>
+        <v/>
+      </c>
+      <c r="B897" s="54">
+        <f>MONTH(C897)</f>
+        <v/>
+      </c>
+      <c r="C897" s="34" t="n">
+        <v>44782</v>
+      </c>
+      <c r="D897" s="33" t="inlineStr">
+        <is>
+          <t>чай</t>
+        </is>
+      </c>
+      <c r="E897" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F897" s="33" t="inlineStr">
+        <is>
+          <t>кофе/чай</t>
+        </is>
+      </c>
+      <c r="G897" s="33" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="A898" s="54">
+        <f>WEEKDAY(C898)</f>
+        <v/>
+      </c>
+      <c r="B898" s="54">
+        <f>MONTH(C898)</f>
+        <v/>
+      </c>
+      <c r="C898" s="34" t="n">
+        <v>44782</v>
+      </c>
+      <c r="D898" s="33" t="inlineStr">
+        <is>
+          <t>молоко</t>
+        </is>
+      </c>
+      <c r="E898" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F898" s="33" t="inlineStr">
+        <is>
+          <t>молочка</t>
+        </is>
+      </c>
+      <c r="G898" s="33" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="A899" s="54">
+        <f>WEEKDAY(C899)</f>
+        <v/>
+      </c>
+      <c r="B899" s="54">
+        <f>MONTH(C899)</f>
+        <v/>
+      </c>
+      <c r="C899" s="34" t="n">
+        <v>44782</v>
+      </c>
+      <c r="D899" s="33" t="inlineStr">
+        <is>
+          <t>яйца</t>
+        </is>
+      </c>
+      <c r="E899" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F899" s="33" t="inlineStr">
+        <is>
+          <t>мясное</t>
+        </is>
+      </c>
+      <c r="G899" s="33" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="A900" s="54">
+        <f>WEEKDAY(C900)</f>
+        <v/>
+      </c>
+      <c r="B900" s="54">
+        <f>MONTH(C900)</f>
+        <v/>
+      </c>
+      <c r="C900" s="34" t="n">
+        <v>44782</v>
+      </c>
+      <c r="D900" s="33" t="inlineStr">
+        <is>
+          <t>сыр</t>
+        </is>
+      </c>
+      <c r="E900" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F900" s="33" t="inlineStr">
+        <is>
+          <t>молочка</t>
+        </is>
+      </c>
+      <c r="G900" s="33" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="A901" s="54">
+        <f>WEEKDAY(C901)</f>
+        <v/>
+      </c>
+      <c r="B901" s="54">
+        <f>MONTH(C901)</f>
+        <v/>
+      </c>
+      <c r="C901" s="34" t="n">
+        <v>44782</v>
+      </c>
+      <c r="D901" s="33" t="inlineStr">
+        <is>
+          <t>салат</t>
+        </is>
+      </c>
+      <c r="E901" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F901" s="33" t="inlineStr">
+        <is>
+          <t>овощи</t>
+        </is>
+      </c>
+      <c r="G901" s="33" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="A902" s="54">
+        <f>WEEKDAY(C902)</f>
+        <v/>
+      </c>
+      <c r="B902" s="54">
+        <f>MONTH(C902)</f>
+        <v/>
+      </c>
+      <c r="C902" s="34" t="n">
+        <v>44782</v>
+      </c>
+      <c r="D902" s="33" t="inlineStr">
+        <is>
+          <t>творог</t>
+        </is>
+      </c>
+      <c r="E902" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F902" s="33" t="inlineStr">
+        <is>
+          <t>молочка</t>
+        </is>
+      </c>
+      <c r="G902" s="33" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="A903" s="54">
+        <f>WEEKDAY(C903)</f>
+        <v/>
+      </c>
+      <c r="B903" s="54">
+        <f>MONTH(C903)</f>
+        <v/>
+      </c>
+      <c r="C903" s="34" t="n">
+        <v>44783</v>
+      </c>
+      <c r="D903" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E903" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F903" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G903" s="33" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="A904" s="54">
+        <f>WEEKDAY(C904)</f>
+        <v/>
+      </c>
+      <c r="B904" s="54">
+        <f>MONTH(C904)</f>
+        <v/>
+      </c>
+      <c r="C904" s="34" t="n">
+        <v>44783</v>
+      </c>
+      <c r="D904" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E904" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F904" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G904" s="33" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="A905" s="54">
+        <f>WEEKDAY(C905)</f>
+        <v/>
+      </c>
+      <c r="B905" s="54">
+        <f>MONTH(C905)</f>
+        <v/>
+      </c>
+      <c r="C905" s="34" t="n">
+        <v>44783</v>
+      </c>
+      <c r="D905" s="33" t="inlineStr">
+        <is>
+          <t>комиссия</t>
+        </is>
+      </c>
+      <c r="E905" s="33" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
+      <c r="F905" s="33" t="inlineStr">
+        <is>
+          <t>остальное</t>
+        </is>
+      </c>
+      <c r="G905" s="33" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="A906" s="54">
+        <f>WEEKDAY(C906)</f>
+        <v/>
+      </c>
+      <c r="B906" s="54">
+        <f>MONTH(C906)</f>
+        <v/>
+      </c>
+      <c r="C906" s="34" t="n">
+        <v>44783</v>
+      </c>
+      <c r="D906" s="33" t="inlineStr">
+        <is>
+          <t>еда работа</t>
+        </is>
+      </c>
+      <c r="E906" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F906" s="33" t="inlineStr">
+        <is>
+          <t>Фаст-Фуд</t>
+        </is>
+      </c>
+      <c r="G906" s="33" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="A907" s="54">
+        <f>WEEKDAY(C907)</f>
+        <v/>
+      </c>
+      <c r="B907" s="54">
+        <f>MONTH(C907)</f>
+        <v/>
+      </c>
+      <c r="C907" s="34" t="n">
+        <v>44783</v>
+      </c>
+      <c r="D907" s="33" t="inlineStr">
+        <is>
+          <t>шорты</t>
+        </is>
+      </c>
+      <c r="E907" s="33" t="inlineStr">
+        <is>
+          <t>одежда</t>
+        </is>
+      </c>
+      <c r="F907" s="33" t="inlineStr">
+        <is>
+          <t>Штаны</t>
+        </is>
+      </c>
+      <c r="G907" s="33" t="n">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="A908" s="54">
+        <f>WEEKDAY(C908)</f>
+        <v/>
+      </c>
+      <c r="B908" s="54">
+        <f>MONTH(C908)</f>
+        <v/>
+      </c>
+      <c r="C908" s="34" t="n">
+        <v>44784</v>
+      </c>
+      <c r="D908" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E908" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F908" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G908" s="33" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="A909" s="54">
+        <f>WEEKDAY(C909)</f>
+        <v/>
+      </c>
+      <c r="B909" s="54">
+        <f>MONTH(C909)</f>
+        <v/>
+      </c>
+      <c r="C909" s="34" t="n">
+        <v>44784</v>
+      </c>
+      <c r="D909" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E909" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F909" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G909" s="33" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="A910" s="54">
+        <f>WEEKDAY(C910)</f>
+        <v/>
+      </c>
+      <c r="B910" s="54">
+        <f>MONTH(C910)</f>
+        <v/>
+      </c>
+      <c r="C910" s="34" t="n">
+        <v>44784</v>
+      </c>
+      <c r="D910" s="33" t="inlineStr">
+        <is>
+          <t>верхняя одежда</t>
+        </is>
+      </c>
+      <c r="E910" s="33" t="inlineStr">
+        <is>
+          <t>одежда</t>
+        </is>
+      </c>
+      <c r="F910" s="33" t="inlineStr">
+        <is>
+          <t>верхняя</t>
+        </is>
+      </c>
+      <c r="G910" s="33" t="n">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="A911" s="54">
+        <f>WEEKDAY(C911)</f>
+        <v/>
+      </c>
+      <c r="B911" s="54">
+        <f>MONTH(C911)</f>
+        <v/>
+      </c>
+      <c r="C911" s="34" t="n">
+        <v>44784</v>
+      </c>
+      <c r="D911" s="33" t="inlineStr">
+        <is>
+          <t>еда работа</t>
+        </is>
+      </c>
+      <c r="E911" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F911" s="33" t="inlineStr">
+        <is>
+          <t>Обед (работа)</t>
+        </is>
+      </c>
+      <c r="G911" s="33" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="A912" s="54">
+        <f>WEEKDAY(C912)</f>
+        <v/>
+      </c>
+      <c r="B912" s="54">
+        <f>MONTH(C912)</f>
+        <v/>
+      </c>
+      <c r="C912" s="34" t="n">
+        <v>44784</v>
+      </c>
+      <c r="D912" s="33" t="inlineStr">
+        <is>
+          <t>наггетсы</t>
+        </is>
+      </c>
+      <c r="E912" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F912" s="33" t="inlineStr">
+        <is>
+          <t>мясное</t>
+        </is>
+      </c>
+      <c r="G912" s="33" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="A913" s="54">
+        <f>WEEKDAY(C913)</f>
+        <v/>
+      </c>
+      <c r="B913" s="54">
+        <f>MONTH(C913)</f>
+        <v/>
+      </c>
+      <c r="C913" s="34" t="n">
+        <v>44784</v>
+      </c>
+      <c r="D913" s="33" t="inlineStr">
+        <is>
+          <t>стрепсилс</t>
+        </is>
+      </c>
+      <c r="E913" s="33" t="inlineStr">
+        <is>
+          <t>Здоровье, красота, гигиена</t>
+        </is>
+      </c>
+      <c r="F913" s="33" t="n"/>
+      <c r="G913" s="33" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="A914" s="54">
+        <f>WEEKDAY(C914)</f>
+        <v/>
+      </c>
+      <c r="B914" s="54">
+        <f>MONTH(C914)</f>
+        <v/>
+      </c>
+      <c r="C914" s="34" t="n">
+        <v>44784</v>
+      </c>
+      <c r="D914" s="33" t="inlineStr">
+        <is>
+          <t>лекарства</t>
+        </is>
+      </c>
+      <c r="E914" s="33" t="inlineStr">
+        <is>
+          <t>Здоровье, красота, гигиена</t>
+        </is>
+      </c>
+      <c r="F914" s="33" t="n"/>
+      <c r="G914" s="33" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="A915" s="54">
+        <f>WEEKDAY(C915)</f>
+        <v/>
+      </c>
+      <c r="B915" s="54">
+        <f>MONTH(C915)</f>
+        <v/>
+      </c>
+      <c r="C915" s="34" t="n">
+        <v>44784</v>
+      </c>
+      <c r="D915" s="33" t="inlineStr">
+        <is>
+          <t>масло</t>
+        </is>
+      </c>
+      <c r="E915" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F915" s="33" t="inlineStr">
+        <is>
+          <t>молочка</t>
+        </is>
+      </c>
+      <c r="G915" s="33" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="A916" s="54">
+        <f>WEEKDAY(C916)</f>
+        <v/>
+      </c>
+      <c r="B916" s="54">
+        <f>MONTH(C916)</f>
+        <v/>
+      </c>
+      <c r="C916" s="34" t="n">
+        <v>44784</v>
+      </c>
+      <c r="D916" s="33" t="inlineStr">
+        <is>
+          <t>туалетная бумага</t>
+        </is>
+      </c>
+      <c r="E916" s="33" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="F916" s="33" t="inlineStr">
+        <is>
+          <t>товары для дома</t>
+        </is>
+      </c>
+      <c r="G916" s="33" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="A917" s="54">
+        <f>WEEKDAY(C917)</f>
+        <v/>
+      </c>
+      <c r="B917" s="54">
+        <f>MONTH(C917)</f>
+        <v/>
+      </c>
+      <c r="C917" s="34" t="n">
+        <v>44785</v>
+      </c>
+      <c r="D917" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E917" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F917" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G917" s="33" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="A918" s="54">
+        <f>WEEKDAY(C918)</f>
+        <v/>
+      </c>
+      <c r="B918" s="54">
+        <f>MONTH(C918)</f>
+        <v/>
+      </c>
+      <c r="C918" s="34" t="n">
+        <v>44785</v>
+      </c>
+      <c r="D918" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E918" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F918" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G918" s="33" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="A919" s="54">
+        <f>WEEKDAY(C919)</f>
+        <v/>
+      </c>
+      <c r="B919" s="54">
+        <f>MONTH(C919)</f>
+        <v/>
+      </c>
+      <c r="C919" s="34" t="n">
+        <v>44785</v>
+      </c>
+      <c r="D919" s="33" t="inlineStr">
+        <is>
+          <t>еда работа</t>
+        </is>
+      </c>
+      <c r="E919" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F919" s="33" t="inlineStr">
+        <is>
+          <t>Обед (работа)</t>
+        </is>
+      </c>
+      <c r="G919" s="33" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="A920" s="54">
+        <f>WEEKDAY(C920)</f>
+        <v/>
+      </c>
+      <c r="B920" s="54">
+        <f>MONTH(C920)</f>
+        <v/>
+      </c>
+      <c r="C920" s="34" t="n">
+        <v>44785</v>
+      </c>
+      <c r="D920" s="33" t="inlineStr">
+        <is>
+          <t>газ</t>
+        </is>
+      </c>
+      <c r="E920" s="33" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="F920" s="33" t="inlineStr">
+        <is>
+          <t>Газ</t>
+        </is>
+      </c>
+      <c r="G920" s="33" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="A921" s="54">
+        <f>WEEKDAY(C921)</f>
+        <v/>
+      </c>
+      <c r="B921" s="54">
+        <f>MONTH(C921)</f>
+        <v/>
+      </c>
+      <c r="C921" s="34" t="n">
+        <v>44785</v>
+      </c>
+      <c r="D921" s="33" t="inlineStr">
+        <is>
+          <t>коммуналка</t>
+        </is>
+      </c>
+      <c r="E921" s="33" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="F921" s="33" t="inlineStr">
+        <is>
+          <t>ЖКХ</t>
+        </is>
+      </c>
+      <c r="G921" s="33" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="A922" s="54">
+        <f>WEEKDAY(C922)</f>
+        <v/>
+      </c>
+      <c r="B922" s="54">
+        <f>MONTH(C922)</f>
+        <v/>
+      </c>
+      <c r="C922" s="34" t="n">
+        <v>44785</v>
+      </c>
+      <c r="D922" s="33" t="inlineStr">
+        <is>
+          <t>электричество</t>
+        </is>
+      </c>
+      <c r="E922" s="33" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="F922" s="33" t="inlineStr">
+        <is>
+          <t>Электричество</t>
+        </is>
+      </c>
+      <c r="G922" s="33" t="n">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="A923" s="54">
+        <f>WEEKDAY(C923)</f>
+        <v/>
+      </c>
+      <c r="B923" s="54">
+        <f>MONTH(C923)</f>
+        <v/>
+      </c>
+      <c r="C923" s="34" t="n">
+        <v>44785</v>
+      </c>
+      <c r="D923" s="33" t="inlineStr">
+        <is>
+          <t>подарок</t>
+        </is>
+      </c>
+      <c r="E923" s="33" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
+      <c r="F923" s="33" t="inlineStr">
+        <is>
+          <t>Подарки</t>
+        </is>
+      </c>
+      <c r="G923" s="33" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="A924" s="54">
+        <f>WEEKDAY(C924)</f>
+        <v/>
+      </c>
+      <c r="B924" s="54">
+        <f>MONTH(C924)</f>
+        <v/>
+      </c>
+      <c r="C924" s="34" t="n">
+        <v>44785</v>
+      </c>
+      <c r="D924" s="33" t="inlineStr">
+        <is>
+          <t>шаверма</t>
+        </is>
+      </c>
+      <c r="E924" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F924" s="33" t="inlineStr">
+        <is>
+          <t>Фаст-Фуд</t>
+        </is>
+      </c>
+      <c r="G924" s="33" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="A925" s="54">
+        <f>WEEKDAY(C925)</f>
+        <v/>
+      </c>
+      <c r="B925" s="54">
+        <f>MONTH(C925)</f>
+        <v/>
+      </c>
+      <c r="C925" s="34" t="n">
+        <v>44785</v>
+      </c>
+      <c r="D925" s="33" t="inlineStr">
+        <is>
+          <t>пиво</t>
+        </is>
+      </c>
+      <c r="E925" s="33" t="inlineStr">
+        <is>
+          <t>алкоголь</t>
+        </is>
+      </c>
+      <c r="F925" s="33" t="inlineStr">
+        <is>
+          <t>пиво</t>
+        </is>
+      </c>
+      <c r="G925" s="33" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="A926" s="54">
+        <f>WEEKDAY(C926)</f>
+        <v/>
+      </c>
+      <c r="B926" s="54">
+        <f>MONTH(C926)</f>
+        <v/>
+      </c>
+      <c r="C926" s="34" t="n">
+        <v>44786</v>
+      </c>
+      <c r="D926" s="33" t="inlineStr">
+        <is>
+          <t>яндекс музыка</t>
+        </is>
+      </c>
+      <c r="E926" s="33" t="inlineStr">
+        <is>
+          <t>Связь</t>
+        </is>
+      </c>
+      <c r="F926" s="33" t="inlineStr">
+        <is>
+          <t>Яндекс+</t>
+        </is>
+      </c>
+      <c r="G926" s="33" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="A927" s="54">
+        <f>WEEKDAY(C927)</f>
+        <v/>
+      </c>
+      <c r="B927" s="54">
+        <f>MONTH(C927)</f>
+        <v/>
+      </c>
+      <c r="C927" s="34" t="n">
+        <v>44786</v>
+      </c>
+      <c r="D927" s="33" t="inlineStr">
+        <is>
+          <t>кофее</t>
+        </is>
+      </c>
+      <c r="E927" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F927" s="33" t="inlineStr">
+        <is>
+          <t>Кофе</t>
+        </is>
+      </c>
+      <c r="G927" s="33" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="A928" s="54">
+        <f>WEEKDAY(C928)</f>
+        <v/>
+      </c>
+      <c r="B928" s="54">
+        <f>MONTH(C928)</f>
+        <v/>
+      </c>
+      <c r="C928" s="34" t="n">
+        <v>44786</v>
+      </c>
+      <c r="D928" s="33" t="inlineStr">
+        <is>
+          <t>сыр</t>
+        </is>
+      </c>
+      <c r="E928" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F928" s="33" t="inlineStr">
+        <is>
+          <t>молочка</t>
+        </is>
+      </c>
+      <c r="G928" s="33" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="A929" s="54">
+        <f>WEEKDAY(C929)</f>
+        <v/>
+      </c>
+      <c r="B929" s="54">
+        <f>MONTH(C929)</f>
+        <v/>
+      </c>
+      <c r="C929" s="34" t="n">
+        <v>44786</v>
+      </c>
+      <c r="D929" s="33" t="inlineStr">
+        <is>
+          <t>бекон</t>
+        </is>
+      </c>
+      <c r="E929" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F929" s="33" t="inlineStr">
+        <is>
+          <t>мясное</t>
+        </is>
+      </c>
+      <c r="G929" s="33" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="A930" s="54">
+        <f>WEEKDAY(C930)</f>
+        <v/>
+      </c>
+      <c r="B930" s="54">
+        <f>MONTH(C930)</f>
+        <v/>
+      </c>
+      <c r="C930" s="34" t="n">
+        <v>44786</v>
+      </c>
+      <c r="D930" s="33" t="inlineStr">
+        <is>
+          <t>яйца</t>
+        </is>
+      </c>
+      <c r="E930" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F930" s="33" t="inlineStr">
+        <is>
+          <t>мясное</t>
+        </is>
+      </c>
+      <c r="G930" s="33" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="A931" s="54">
+        <f>WEEKDAY(C931)</f>
+        <v/>
+      </c>
+      <c r="B931" s="54">
+        <f>MONTH(C931)</f>
+        <v/>
+      </c>
+      <c r="C931" s="34" t="n">
+        <v>44786</v>
+      </c>
+      <c r="D931" s="33" t="inlineStr">
+        <is>
+          <t>сырок</t>
+        </is>
+      </c>
+      <c r="E931" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F931" s="33" t="inlineStr">
+        <is>
+          <t>молочка</t>
+        </is>
+      </c>
+      <c r="G931" s="33" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="A932" s="54">
+        <f>WEEKDAY(C932)</f>
+        <v/>
+      </c>
+      <c r="B932" s="54">
+        <f>MONTH(C932)</f>
+        <v/>
+      </c>
+      <c r="C932" s="34" t="n">
+        <v>44787</v>
+      </c>
+      <c r="D932" s="33" t="inlineStr">
+        <is>
+          <t>энергос</t>
+        </is>
+      </c>
+      <c r="E932" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F932" s="33" t="inlineStr">
+        <is>
+          <t>Напитки</t>
+        </is>
+      </c>
+      <c r="G932" s="33" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="A933" s="54">
+        <f>WEEKDAY(C933)</f>
+        <v/>
+      </c>
+      <c r="B933" s="54">
+        <f>MONTH(C933)</f>
+        <v/>
+      </c>
+      <c r="C933" s="34" t="n">
+        <v>44787</v>
+      </c>
+      <c r="D933" s="33" t="inlineStr">
+        <is>
+          <t>есентуки</t>
+        </is>
+      </c>
+      <c r="E933" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F933" s="33" t="inlineStr">
+        <is>
+          <t>Сладости/Напитки</t>
+        </is>
+      </c>
+      <c r="G933" s="33" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="A934" s="54">
+        <f>WEEKDAY(C934)</f>
+        <v/>
+      </c>
+      <c r="B934" s="54">
+        <f>MONTH(C934)</f>
+        <v/>
+      </c>
+      <c r="C934" s="34" t="n">
+        <v>44787</v>
+      </c>
+      <c r="D934" s="33" t="inlineStr">
+        <is>
+          <t>творожок</t>
+        </is>
+      </c>
+      <c r="E934" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F934" s="33" t="inlineStr">
+        <is>
+          <t>молочка</t>
+        </is>
+      </c>
+      <c r="G934" s="33" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="A935" s="54">
+        <f>WEEKDAY(C935)</f>
+        <v/>
+      </c>
+      <c r="B935" s="54">
+        <f>MONTH(C935)</f>
+        <v/>
+      </c>
+      <c r="C935" s="34" t="n">
+        <v>44787</v>
+      </c>
+      <c r="D935" s="33" t="inlineStr">
+        <is>
+          <t>кальмары</t>
+        </is>
+      </c>
+      <c r="E935" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F935" s="33" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
+      <c r="G935" s="33" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="A936" s="54">
+        <f>WEEKDAY(C936)</f>
+        <v/>
+      </c>
+      <c r="B936" s="54">
+        <f>MONTH(C936)</f>
+        <v/>
+      </c>
+      <c r="C936" s="34" t="n">
+        <v>44787</v>
+      </c>
+      <c r="D936" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">лемонад </t>
+        </is>
+      </c>
+      <c r="E936" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F936" s="33" t="inlineStr">
+        <is>
+          <t>Сладости/Напитки</t>
+        </is>
+      </c>
+      <c r="G936" s="33" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="A937" s="54">
+        <f>WEEKDAY(C937)</f>
+        <v/>
+      </c>
+      <c r="B937" s="54">
+        <f>MONTH(C937)</f>
+        <v/>
+      </c>
+      <c r="C937" s="34" t="n">
+        <v>44787</v>
+      </c>
+      <c r="D937" s="33" t="inlineStr">
+        <is>
+          <t>ликер</t>
+        </is>
+      </c>
+      <c r="E937" s="33" t="inlineStr">
+        <is>
+          <t>алкоголь</t>
+        </is>
+      </c>
+      <c r="F937" s="33" t="inlineStr">
+        <is>
+          <t>Сидр</t>
+        </is>
+      </c>
+      <c r="G937" s="33" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="A938" s="54">
+        <f>WEEKDAY(C938)</f>
+        <v/>
+      </c>
+      <c r="B938" s="54">
+        <f>MONTH(C938)</f>
+        <v/>
+      </c>
+      <c r="C938" s="34" t="n">
+        <v>44787</v>
+      </c>
+      <c r="D938" s="33" t="inlineStr">
+        <is>
+          <t>чипсы</t>
+        </is>
+      </c>
+      <c r="E938" s="33" t="inlineStr">
+        <is>
+          <t>алкоголь</t>
+        </is>
+      </c>
+      <c r="F938" s="33" t="inlineStr">
+        <is>
+          <t>Закуски</t>
+        </is>
+      </c>
+      <c r="G938" s="33" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="A939" s="54">
+        <f>WEEKDAY(C939)</f>
+        <v/>
+      </c>
+      <c r="B939" s="54">
+        <f>MONTH(C939)</f>
+        <v/>
+      </c>
+      <c r="C939" s="34" t="n">
+        <v>44787</v>
+      </c>
+      <c r="D939" s="33" t="inlineStr">
+        <is>
+          <t>масло</t>
+        </is>
+      </c>
+      <c r="E939" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F939" s="33" t="inlineStr">
+        <is>
+          <t>молочка</t>
+        </is>
+      </c>
+      <c r="G939" s="33" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="A940" s="54">
+        <f>WEEKDAY(C940)</f>
+        <v/>
+      </c>
+      <c r="B940" s="54">
+        <f>MONTH(C940)</f>
+        <v/>
+      </c>
+      <c r="C940" s="34" t="n">
+        <v>44787</v>
+      </c>
+      <c r="D940" s="33" t="inlineStr">
+        <is>
+          <t>печенье</t>
+        </is>
+      </c>
+      <c r="E940" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F940" s="33" t="inlineStr">
+        <is>
+          <t>Сладости/Напитки</t>
+        </is>
+      </c>
+      <c r="G940" s="33" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="A941" s="54">
+        <f>WEEKDAY(C941)</f>
+        <v/>
+      </c>
+      <c r="B941" s="54">
+        <f>MONTH(C941)</f>
+        <v/>
+      </c>
+      <c r="C941" s="34" t="n">
+        <v>44788</v>
+      </c>
+      <c r="D941" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E941" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F941" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G941" s="33" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="A942" s="54">
+        <f>WEEKDAY(C942)</f>
+        <v/>
+      </c>
+      <c r="B942" s="54">
+        <f>MONTH(C942)</f>
+        <v/>
+      </c>
+      <c r="C942" s="34" t="n">
+        <v>44788</v>
+      </c>
+      <c r="D942" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E942" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F942" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G942" s="33" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="A943" s="54">
+        <f>WEEKDAY(C943)</f>
+        <v/>
+      </c>
+      <c r="B943" s="54">
+        <f>MONTH(C943)</f>
+        <v/>
+      </c>
+      <c r="C943" s="34" t="n">
+        <v>44788</v>
+      </c>
+      <c r="D943" s="33" t="inlineStr">
+        <is>
+          <t>кофе</t>
+        </is>
+      </c>
+      <c r="E943" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F943" s="33" t="inlineStr">
+        <is>
+          <t>кофе/чай</t>
+        </is>
+      </c>
+      <c r="G943" s="33" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="A944" s="54">
+        <f>WEEKDAY(C944)</f>
+        <v/>
+      </c>
+      <c r="B944" s="54">
+        <f>MONTH(C944)</f>
+        <v/>
+      </c>
+      <c r="C944" s="34" t="n">
+        <v>44788</v>
+      </c>
+      <c r="D944" s="33" t="inlineStr">
+        <is>
+          <t>кофе</t>
+        </is>
+      </c>
+      <c r="E944" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F944" s="33" t="inlineStr">
+        <is>
+          <t>Кофе</t>
+        </is>
+      </c>
+      <c r="G944" s="33" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="A945" s="54">
+        <f>WEEKDAY(C945)</f>
+        <v/>
+      </c>
+      <c r="B945" s="54">
+        <f>MONTH(C945)</f>
+        <v/>
+      </c>
+      <c r="C945" s="34" t="n">
+        <v>44788</v>
+      </c>
+      <c r="D945" s="33" t="inlineStr">
+        <is>
+          <t>манго</t>
+        </is>
+      </c>
+      <c r="E945" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F945" s="33" t="inlineStr">
+        <is>
+          <t>фрукты</t>
+        </is>
+      </c>
+      <c r="G945" s="33" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="A946" s="54">
+        <f>WEEKDAY(C946)</f>
+        <v/>
+      </c>
+      <c r="B946" s="54">
+        <f>MONTH(C946)</f>
+        <v/>
+      </c>
+      <c r="C946" s="34" t="n">
+        <v>44788</v>
+      </c>
+      <c r="D946" s="33" t="inlineStr">
+        <is>
+          <t>кепка</t>
+        </is>
+      </c>
+      <c r="E946" s="33" t="inlineStr">
+        <is>
+          <t>одежда</t>
+        </is>
+      </c>
+      <c r="F946" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Аксесуары </t>
+        </is>
+      </c>
+      <c r="G946" s="33" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="A947" s="54">
+        <f>WEEKDAY(C947)</f>
+        <v/>
+      </c>
+      <c r="B947" s="54">
+        <f>MONTH(C947)</f>
+        <v/>
+      </c>
+      <c r="C947" s="34" t="n">
+        <v>44788</v>
+      </c>
+      <c r="D947" s="33" t="inlineStr">
+        <is>
+          <t>очки</t>
+        </is>
+      </c>
+      <c r="E947" s="33" t="inlineStr">
+        <is>
+          <t>одежда</t>
+        </is>
+      </c>
+      <c r="F947" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Аксесуары </t>
+        </is>
+      </c>
+      <c r="G947" s="33" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="A948" s="54">
+        <f>WEEKDAY(C948)</f>
+        <v/>
+      </c>
+      <c r="B948" s="54">
+        <f>MONTH(C948)</f>
+        <v/>
+      </c>
+      <c r="C948" s="34" t="n">
+        <v>44788</v>
+      </c>
+      <c r="D948" s="33" t="inlineStr">
+        <is>
+          <t>дождевик</t>
+        </is>
+      </c>
+      <c r="E948" s="33" t="inlineStr">
+        <is>
+          <t>одежда</t>
+        </is>
+      </c>
+      <c r="F948" s="33" t="inlineStr">
+        <is>
+          <t>верхняя</t>
+        </is>
+      </c>
+      <c r="G948" s="33" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="A949" s="54">
+        <f>WEEKDAY(C949)</f>
+        <v/>
+      </c>
+      <c r="B949" s="54">
+        <f>MONTH(C949)</f>
+        <v/>
+      </c>
+      <c r="C949" s="34" t="n">
+        <v>44788</v>
+      </c>
+      <c r="D949" s="33" t="inlineStr">
+        <is>
+          <t>перекус</t>
+        </is>
+      </c>
+      <c r="E949" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F949" s="33" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="G949" s="33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="A950" s="54">
+        <f>WEEKDAY(C950)</f>
+        <v/>
+      </c>
+      <c r="B950" s="54">
+        <f>MONTH(C950)</f>
+        <v/>
+      </c>
+      <c r="C950" s="34" t="n">
+        <v>44789</v>
+      </c>
+      <c r="D950" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E950" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F950" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G950" s="33" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="A951" s="54">
+        <f>WEEKDAY(C951)</f>
+        <v/>
+      </c>
+      <c r="B951" s="54">
+        <f>MONTH(C951)</f>
+        <v/>
+      </c>
+      <c r="C951" s="34" t="n">
+        <v>44789</v>
+      </c>
+      <c r="D951" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E951" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F951" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G951" s="33" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="A952" s="54">
+        <f>WEEKDAY(C952)</f>
+        <v/>
+      </c>
+      <c r="B952" s="54">
+        <f>MONTH(C952)</f>
+        <v/>
+      </c>
+      <c r="C952" s="34" t="n">
+        <v>44789</v>
+      </c>
+      <c r="D952" s="33" t="inlineStr">
+        <is>
+          <t>квас</t>
+        </is>
+      </c>
+      <c r="E952" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F952" s="33" t="inlineStr">
+        <is>
+          <t>Напитки</t>
+        </is>
+      </c>
+      <c r="G952" s="33" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="A953" s="54">
+        <f>WEEKDAY(C953)</f>
+        <v/>
+      </c>
+      <c r="B953" s="54">
+        <f>MONTH(C953)</f>
+        <v/>
+      </c>
+      <c r="C953" s="34" t="n">
+        <v>44789</v>
+      </c>
+      <c r="D953" s="33" t="inlineStr">
+        <is>
+          <t>творог на работу</t>
+        </is>
+      </c>
+      <c r="E953" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F953" s="33" t="inlineStr">
+        <is>
+          <t>Обед (работа)</t>
+        </is>
+      </c>
+      <c r="G953" s="33" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="A954" s="54">
+        <f>WEEKDAY(C954)</f>
+        <v/>
+      </c>
+      <c r="B954" s="54">
+        <f>MONTH(C954)</f>
+        <v/>
+      </c>
+      <c r="C954" s="34" t="n">
+        <v>44789</v>
+      </c>
+      <c r="D954" s="33" t="inlineStr">
+        <is>
+          <t>голень</t>
+        </is>
+      </c>
+      <c r="E954" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F954" s="33" t="inlineStr">
+        <is>
+          <t>мясное</t>
+        </is>
+      </c>
+      <c r="G954" s="33" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="A955" s="54">
+        <f>WEEKDAY(C955)</f>
+        <v/>
+      </c>
+      <c r="B955" s="54">
+        <f>MONTH(C955)</f>
+        <v/>
+      </c>
+      <c r="C955" s="34" t="n">
+        <v>44790</v>
+      </c>
+      <c r="D955" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E955" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F955" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G955" s="33" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="A956" s="54">
+        <f>WEEKDAY(C956)</f>
+        <v/>
+      </c>
+      <c r="B956" s="54">
+        <f>MONTH(C956)</f>
+        <v/>
+      </c>
+      <c r="C956" s="34" t="n">
+        <v>44790</v>
+      </c>
+      <c r="D956" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E956" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F956" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G956" s="33" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="A957" s="54">
+        <f>WEEKDAY(C957)</f>
+        <v/>
+      </c>
+      <c r="B957" s="54">
+        <f>MONTH(C957)</f>
+        <v/>
+      </c>
+      <c r="C957" s="34" t="n">
+        <v>44790</v>
+      </c>
+      <c r="D957" s="33" t="inlineStr">
+        <is>
+          <t>квас</t>
+        </is>
+      </c>
+      <c r="E957" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F957" s="33" t="inlineStr">
+        <is>
+          <t>Напитки</t>
+        </is>
+      </c>
+      <c r="G957" s="33" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="A958" s="54">
+        <f>WEEKDAY(C958)</f>
+        <v/>
+      </c>
+      <c r="B958" s="54">
+        <f>MONTH(C958)</f>
+        <v/>
+      </c>
+      <c r="C958" s="34" t="n">
+        <v>44790</v>
+      </c>
+      <c r="D958" s="33" t="inlineStr">
+        <is>
+          <t>одеб работа</t>
+        </is>
+      </c>
+      <c r="E958" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F958" s="33" t="inlineStr">
+        <is>
+          <t>Обед (работа)</t>
+        </is>
+      </c>
+      <c r="G958" s="33" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="A959" s="54">
+        <f>WEEKDAY(C959)</f>
+        <v/>
+      </c>
+      <c r="B959" s="54">
+        <f>MONTH(C959)</f>
+        <v/>
+      </c>
+      <c r="C959" s="34" t="n">
+        <v>44791</v>
+      </c>
+      <c r="D959" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E959" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F959" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G959" s="33" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="A960" s="54">
+        <f>WEEKDAY(C960)</f>
+        <v/>
+      </c>
+      <c r="B960" s="54">
+        <f>MONTH(C960)</f>
+        <v/>
+      </c>
+      <c r="C960" s="34" t="n">
+        <v>44791</v>
+      </c>
+      <c r="D960" s="33" t="inlineStr">
+        <is>
+          <t>квас</t>
+        </is>
+      </c>
+      <c r="E960" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F960" s="33" t="inlineStr">
+        <is>
+          <t>Напитки</t>
+        </is>
+      </c>
+      <c r="G960" s="33" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="A961" s="54">
+        <f>WEEKDAY(C961)</f>
+        <v/>
+      </c>
+      <c r="B961" s="54">
+        <f>MONTH(C961)</f>
+        <v/>
+      </c>
+      <c r="C961" s="34" t="n">
+        <v>44792</v>
+      </c>
+      <c r="D961" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E961" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F961" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G961" s="33" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="A962" s="54">
+        <f>WEEKDAY(C962)</f>
+        <v/>
+      </c>
+      <c r="B962" s="54">
+        <f>MONTH(C962)</f>
+        <v/>
+      </c>
+      <c r="C962" s="34" t="n">
+        <v>44792</v>
+      </c>
+      <c r="D962" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E962" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F962" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G962" s="33" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="A963" s="54">
+        <f>WEEKDAY(C963)</f>
+        <v/>
+      </c>
+      <c r="B963" s="54">
+        <f>MONTH(C963)</f>
+        <v/>
+      </c>
+      <c r="C963" s="34" t="n">
+        <v>44792</v>
+      </c>
+      <c r="D963" s="33" t="inlineStr">
+        <is>
+          <t>перекус</t>
+        </is>
+      </c>
+      <c r="E963" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F963" s="33" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="G963" s="33" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="A964" s="54">
+        <f>WEEKDAY(C964)</f>
+        <v/>
+      </c>
+      <c r="B964" s="54">
+        <f>MONTH(C964)</f>
+        <v/>
+      </c>
+      <c r="C964" s="34" t="n">
+        <v>44792</v>
+      </c>
+      <c r="D964" s="33" t="inlineStr">
+        <is>
+          <t>пельмени</t>
+        </is>
+      </c>
+      <c r="E964" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F964" s="33" t="inlineStr">
+        <is>
+          <t>мясное</t>
+        </is>
+      </c>
+      <c r="G964" s="33" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="A965" s="54">
+        <f>WEEKDAY(C965)</f>
+        <v/>
+      </c>
+      <c r="B965" s="54">
+        <f>MONTH(C965)</f>
+        <v/>
+      </c>
+      <c r="C965" s="34" t="n">
+        <v>44792</v>
+      </c>
+      <c r="D965" s="33" t="inlineStr">
+        <is>
+          <t>фрукты</t>
+        </is>
+      </c>
+      <c r="E965" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F965" s="33" t="inlineStr">
+        <is>
+          <t>фрукты</t>
+        </is>
+      </c>
+      <c r="G965" s="33" t="n">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="A966" s="54">
+        <f>WEEKDAY(C966)</f>
+        <v/>
+      </c>
+      <c r="B966" s="54">
+        <f>MONTH(C966)</f>
+        <v/>
+      </c>
+      <c r="C966" s="34" t="n">
+        <v>44792</v>
+      </c>
+      <c r="D966" s="33" t="inlineStr">
+        <is>
+          <t>купаты</t>
+        </is>
+      </c>
+      <c r="E966" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F966" s="33" t="inlineStr">
+        <is>
+          <t>мясное</t>
+        </is>
+      </c>
+      <c r="G966" s="33" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="A967" s="54">
+        <f>WEEKDAY(C967)</f>
+        <v/>
+      </c>
+      <c r="B967" s="54">
+        <f>MONTH(C967)</f>
+        <v/>
+      </c>
+      <c r="C967" s="34" t="n">
+        <v>44792</v>
+      </c>
+      <c r="D967" s="33" t="inlineStr">
+        <is>
+          <t>молоко</t>
+        </is>
+      </c>
+      <c r="E967" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F967" s="33" t="inlineStr">
+        <is>
+          <t>молочка</t>
+        </is>
+      </c>
+      <c r="G967" s="33" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="A968" s="54">
+        <f>WEEKDAY(C968)</f>
+        <v/>
+      </c>
+      <c r="B968" s="54">
+        <f>MONTH(C968)</f>
+        <v/>
+      </c>
+      <c r="C968" s="34" t="n">
+        <v>44793</v>
+      </c>
+      <c r="D968" s="33" t="inlineStr">
+        <is>
+          <t>стрижка</t>
+        </is>
+      </c>
+      <c r="E968" s="33" t="inlineStr">
+        <is>
+          <t>Здоровье, красота, гигиена</t>
+        </is>
+      </c>
+      <c r="F968" s="33" t="n"/>
+      <c r="G968" s="33" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="A969" s="54">
+        <f>WEEKDAY(C969)</f>
+        <v/>
+      </c>
+      <c r="B969" s="54">
+        <f>MONTH(C969)</f>
+        <v/>
+      </c>
+      <c r="C969" s="34" t="n">
+        <v>44793</v>
+      </c>
+      <c r="D969" s="33" t="inlineStr">
+        <is>
+          <t>бананы</t>
+        </is>
+      </c>
+      <c r="E969" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F969" s="33" t="inlineStr">
+        <is>
+          <t>Перекус</t>
+        </is>
+      </c>
+      <c r="G969" s="33" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="A970" s="54">
+        <f>WEEKDAY(C970)</f>
+        <v/>
+      </c>
+      <c r="B970" s="54">
+        <f>MONTH(C970)</f>
+        <v/>
+      </c>
+      <c r="C970" s="34" t="n">
+        <v>44793</v>
+      </c>
+      <c r="D970" s="33" t="inlineStr">
+        <is>
+          <t>до до пицца</t>
+        </is>
+      </c>
+      <c r="E970" s="33" t="inlineStr">
+        <is>
+          <t>еда</t>
+        </is>
+      </c>
+      <c r="F970" s="33" t="inlineStr">
+        <is>
+          <t>Фаст-Фуд</t>
+        </is>
+      </c>
+      <c r="G970" s="33" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="A971" s="54">
+        <f>WEEKDAY(C971)</f>
+        <v/>
+      </c>
+      <c r="B971" s="54">
+        <f>MONTH(C971)</f>
+        <v/>
+      </c>
+      <c r="C971" s="34" t="n">
+        <v>44794</v>
+      </c>
+      <c r="D971" s="33" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="E971" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F971" s="33" t="inlineStr">
+        <is>
+          <t>Автобус</t>
+        </is>
+      </c>
+      <c r="G971" s="33" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="A972" s="54">
+        <f>WEEKDAY(C972)</f>
+        <v/>
+      </c>
+      <c r="B972" s="54">
+        <f>MONTH(C972)</f>
+        <v/>
+      </c>
+      <c r="C972" s="34" t="n">
+        <v>44794</v>
+      </c>
+      <c r="D972" s="33" t="inlineStr">
+        <is>
+          <t>метро</t>
+        </is>
+      </c>
+      <c r="E972" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F972" s="33" t="inlineStr">
+        <is>
+          <t>Метро</t>
+        </is>
+      </c>
+      <c r="G972" s="33" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="A973" s="54">
+        <f>WEEKDAY(C973)</f>
+        <v/>
+      </c>
+      <c r="B973" s="54">
+        <f>MONTH(C973)</f>
+        <v/>
+      </c>
+      <c r="C973" s="34" t="n">
+        <v>44794</v>
+      </c>
+      <c r="D973" s="33" t="inlineStr">
+        <is>
+          <t>вино</t>
+        </is>
+      </c>
+      <c r="E973" s="33" t="inlineStr">
+        <is>
+          <t>алкоголь</t>
+        </is>
+      </c>
+      <c r="F973" s="33" t="inlineStr">
+        <is>
+          <t>вино</t>
+        </is>
+      </c>
+      <c r="G973" s="33" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="A974" s="54">
+        <f>WEEKDAY(C974)</f>
+        <v/>
+      </c>
+      <c r="B974" s="54">
+        <f>MONTH(C974)</f>
+        <v/>
+      </c>
+      <c r="C974" s="34" t="n">
+        <v>44794</v>
+      </c>
+      <c r="D974" s="33" t="inlineStr">
+        <is>
+          <t>творог</t>
+        </is>
+      </c>
+      <c r="E974" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F974" s="33" t="inlineStr">
+        <is>
+          <t>молочка</t>
+        </is>
+      </c>
+      <c r="G974" s="33" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="A975" s="54">
+        <f>WEEKDAY(C975)</f>
+        <v/>
+      </c>
+      <c r="B975" s="54">
+        <f>MONTH(C975)</f>
+        <v/>
+      </c>
+      <c r="C975" s="34" t="n">
+        <v>44794</v>
+      </c>
+      <c r="D975" s="33" t="inlineStr">
+        <is>
+          <t>сахар</t>
+        </is>
+      </c>
+      <c r="E975" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F975" s="33" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
+      <c r="G975" s="33" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="A976" s="54">
+        <f>WEEKDAY(C976)</f>
+        <v/>
+      </c>
+      <c r="B976" s="54">
+        <f>MONTH(C976)</f>
+        <v/>
+      </c>
+      <c r="C976" s="34" t="n">
+        <v>44795</v>
+      </c>
+      <c r="D976" s="33" t="inlineStr">
+        <is>
+          <t>фрукты</t>
+        </is>
+      </c>
+      <c r="E976" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F976" s="33" t="inlineStr">
+        <is>
+          <t>фрукты</t>
+        </is>
+      </c>
+      <c r="G976" s="33" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="A977" s="54">
+        <f>WEEKDAY(C977)</f>
+        <v/>
+      </c>
+      <c r="B977" s="54">
+        <f>MONTH(C977)</f>
+        <v/>
+      </c>
+      <c r="C977" s="34" t="n">
+        <v>44795</v>
+      </c>
+      <c r="D977" s="33" t="inlineStr">
+        <is>
+          <t>жкх</t>
+        </is>
+      </c>
+      <c r="E977" s="33" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="F977" s="33" t="inlineStr">
+        <is>
+          <t>ЖКХ</t>
+        </is>
+      </c>
+      <c r="G977" s="33" t="n">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="A978" s="54">
+        <f>WEEKDAY(C978)</f>
+        <v/>
+      </c>
+      <c r="B978" s="54">
+        <f>MONTH(C978)</f>
+        <v/>
+      </c>
+      <c r="C978" s="34" t="n">
+        <v>44795</v>
+      </c>
+      <c r="D978" s="33" t="inlineStr">
+        <is>
+          <t>газ</t>
+        </is>
+      </c>
+      <c r="E978" s="33" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="F978" s="33" t="inlineStr">
+        <is>
+          <t>газ</t>
+        </is>
+      </c>
+      <c r="G978" s="33" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="A979" s="54">
+        <f>WEEKDAY(C979)</f>
+        <v/>
+      </c>
+      <c r="B979" s="54">
+        <f>MONTH(C979)</f>
+        <v/>
+      </c>
+      <c r="C979" s="34" t="n">
+        <v>44795</v>
+      </c>
+      <c r="D979" s="33" t="inlineStr">
+        <is>
+          <t>коммуналка</t>
+        </is>
+      </c>
+      <c r="E979" s="33" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="F979" s="33" t="inlineStr">
+        <is>
+          <t>ЖКХ</t>
+        </is>
+      </c>
+      <c r="G979" s="33" t="n">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="A980" s="54">
+        <f>WEEKDAY(C980)</f>
+        <v/>
+      </c>
+      <c r="B980" s="54">
+        <f>MONTH(C980)</f>
+        <v/>
+      </c>
+      <c r="C980" s="34" t="n">
+        <v>44795</v>
+      </c>
+      <c r="D980" s="33" t="inlineStr">
+        <is>
+          <t>такси</t>
+        </is>
+      </c>
+      <c r="E980" s="33" t="inlineStr">
+        <is>
+          <t>Транспорт</t>
+        </is>
+      </c>
+      <c r="F980" s="33" t="inlineStr">
+        <is>
+          <t>Такси</t>
+        </is>
+      </c>
+      <c r="G980" s="33" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="A981" s="54">
+        <f>WEEKDAY(C981)</f>
+        <v/>
+      </c>
+      <c r="B981" s="54">
+        <f>MONTH(C981)</f>
+        <v/>
+      </c>
+      <c r="C981" s="34" t="n">
+        <v>44795</v>
+      </c>
+      <c r="D981" s="33" t="inlineStr">
+        <is>
+          <t>пельмени</t>
+        </is>
+      </c>
+      <c r="E981" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F981" s="33" t="inlineStr">
+        <is>
+          <t>мясное</t>
+        </is>
+      </c>
+      <c r="G981" s="33" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="A982" s="54">
+        <f>WEEKDAY(C982)</f>
+        <v/>
+      </c>
+      <c r="B982" s="54">
+        <f>MONTH(C982)</f>
+        <v/>
+      </c>
+      <c r="C982" s="34" t="n">
+        <v>44795</v>
+      </c>
+      <c r="D982" s="33" t="inlineStr">
+        <is>
+          <t>пиво</t>
+        </is>
+      </c>
+      <c r="E982" s="33" t="inlineStr">
+        <is>
+          <t>алкоголь</t>
+        </is>
+      </c>
+      <c r="F982" s="33" t="inlineStr">
+        <is>
+          <t>пиво</t>
+        </is>
+      </c>
+      <c r="G982" s="33" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="A983" s="54">
+        <f>WEEKDAY(C983)</f>
+        <v/>
+      </c>
+      <c r="B983" s="54">
+        <f>MONTH(C983)</f>
+        <v/>
+      </c>
+      <c r="C983" s="34" t="n">
+        <v>44795</v>
+      </c>
+      <c r="D983" s="33" t="inlineStr">
+        <is>
+          <t>чипсы</t>
+        </is>
+      </c>
+      <c r="E983" s="33" t="inlineStr">
+        <is>
+          <t>алкоголь</t>
+        </is>
+      </c>
+      <c r="F983" s="33" t="inlineStr">
+        <is>
+          <t>Закуски</t>
+        </is>
+      </c>
+      <c r="G983" s="33" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="A984" s="54">
+        <f>WEEKDAY(C984)</f>
+        <v/>
+      </c>
+      <c r="B984" s="54">
+        <f>MONTH(C984)</f>
+        <v/>
+      </c>
+      <c r="C984" s="34" t="n">
+        <v>44795</v>
+      </c>
+      <c r="D984" s="33" t="inlineStr">
+        <is>
+          <t>интернет</t>
+        </is>
+      </c>
+      <c r="E984" s="33" t="inlineStr">
+        <is>
+          <t>Квартира</t>
+        </is>
+      </c>
+      <c r="F984" s="33" t="inlineStr">
+        <is>
+          <t>Интернет</t>
+        </is>
+      </c>
+      <c r="G984" s="33" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="A985" s="54">
+        <f>WEEKDAY(C985)</f>
+        <v/>
+      </c>
+      <c r="B985" s="54">
+        <f>MONTH(C985)</f>
+        <v/>
+      </c>
+      <c r="C985" s="34" t="n">
+        <v>44796</v>
+      </c>
+      <c r="D985" s="33" t="inlineStr">
+        <is>
+          <t>путешествие на кавказ</t>
+        </is>
+      </c>
+      <c r="E985" s="33" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
+      <c r="F985" s="33" t="inlineStr">
+        <is>
+          <t>остальное</t>
+        </is>
+      </c>
+      <c r="G985" s="33" t="n">
+        <v>50717</v>
+      </c>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="A986" s="54">
+        <f>WEEKDAY(C986)</f>
+        <v/>
+      </c>
+      <c r="B986" s="54">
+        <f>MONTH(C986)</f>
+        <v/>
+      </c>
+      <c r="C986" s="34" t="n">
+        <v>44805</v>
+      </c>
+      <c r="D986" s="33" t="inlineStr">
+        <is>
+          <t>спрей для волос</t>
+        </is>
+      </c>
+      <c r="E986" s="33" t="inlineStr">
+        <is>
+          <t>Здоровье, красота, гигиена</t>
+        </is>
+      </c>
+      <c r="F986" s="33" t="n"/>
+      <c r="G986" s="33" t="n">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="A987" s="54">
+        <f>WEEKDAY(C987)</f>
+        <v/>
+      </c>
+      <c r="B987" s="54">
+        <f>MONTH(C987)</f>
+        <v/>
+      </c>
+      <c r="C987" s="34" t="n">
+        <v>44808</v>
+      </c>
+      <c r="D987" s="33" t="inlineStr">
+        <is>
+          <t>соль</t>
+        </is>
+      </c>
+      <c r="E987" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F987" s="33" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
+      <c r="G987" s="33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="A988" s="54">
+        <f>WEEKDAY(C988)</f>
+        <v/>
+      </c>
+      <c r="B988" s="54">
+        <f>MONTH(C988)</f>
+        <v/>
+      </c>
+      <c r="C988" s="34" t="n">
+        <v>44808</v>
+      </c>
+      <c r="D988" s="33" t="inlineStr">
+        <is>
+          <t>молоко</t>
+        </is>
+      </c>
+      <c r="E988" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F988" s="33" t="inlineStr">
+        <is>
+          <t>молочка</t>
+        </is>
+      </c>
+      <c r="G988" s="33" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="A989" s="54">
+        <f>WEEKDAY(C989)</f>
+        <v/>
+      </c>
+      <c r="B989" s="54">
+        <f>MONTH(C989)</f>
+        <v/>
+      </c>
+      <c r="C989" s="34" t="n">
+        <v>44808</v>
+      </c>
+      <c r="D989" s="33" t="inlineStr">
+        <is>
+          <t>манго</t>
+        </is>
+      </c>
+      <c r="E989" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F989" s="33" t="inlineStr">
+        <is>
+          <t>фрукты</t>
+        </is>
+      </c>
+      <c r="G989" s="33" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="A990" s="54">
+        <f>WEEKDAY(C990)</f>
+        <v/>
+      </c>
+      <c r="B990" s="54">
+        <f>MONTH(C990)</f>
+        <v/>
+      </c>
+      <c r="C990" s="34" t="n">
+        <v>44808</v>
+      </c>
+      <c r="D990" s="33" t="inlineStr">
+        <is>
+          <t>шоколад</t>
+        </is>
+      </c>
+      <c r="E990" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F990" s="33" t="inlineStr">
+        <is>
+          <t>Сладости/Напитки</t>
+        </is>
+      </c>
+      <c r="G990" s="33" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="A991" s="54">
+        <f>WEEKDAY(C991)</f>
+        <v/>
+      </c>
+      <c r="B991" s="54">
+        <f>MONTH(C991)</f>
+        <v/>
+      </c>
+      <c r="C991" s="34" t="n">
+        <v>44808</v>
+      </c>
+      <c r="D991" s="33" t="inlineStr">
+        <is>
+          <t>фунчоза</t>
+        </is>
+      </c>
+      <c r="E991" s="33" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="F991" s="33" t="inlineStr">
+        <is>
+          <t>крупы</t>
+        </is>
+      </c>
+      <c r="G991" s="33" t="n">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G845">
-    <filterColumn colId="4">
+  <autoFilter ref="A1:G991">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Квартира"/>
+        <dateGroupItem year="2022" month="7" dateTimeGrouping="month"/>
+        <dateGroupItem year="2022" month="8" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation sqref="F2:F86 F88:F259 F261:F273 F275:F486 F488:F645 F647:F845" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F2:F86 F88:F259 F261:F273 F275:F486 F488:F645 F647:F991" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>INDIRECT(E2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -26256,7 +30755,7 @@
   <dimension ref="A1:AJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:Z68"/>
+      <selection activeCell="AA3" sqref="AA3:AA68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -26527,6 +31026,9 @@
       <c r="Z3" s="46" t="n">
         <v>4626</v>
       </c>
+      <c r="AA3" t="n">
+        <v>3825</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="inlineStr">
@@ -26611,6 +31113,9 @@
       <c r="Z4" s="45" t="n">
         <v>1179</v>
       </c>
+      <c r="AA4" t="n">
+        <v>990</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
@@ -26694,6 +31199,9 @@
       <c r="Z5" s="5" t="n">
         <v>595</v>
       </c>
+      <c r="AA5" t="n">
+        <v>526</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="inlineStr">
@@ -26779,6 +31287,9 @@
       <c r="Z6" s="5" t="n">
         <v>1715</v>
       </c>
+      <c r="AA6" t="n">
+        <v>1396</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="inlineStr">
@@ -26864,6 +31375,9 @@
       <c r="Z7" s="5" t="n">
         <v>92</v>
       </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="inlineStr">
@@ -26947,6 +31461,9 @@
       <c r="Z8" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="inlineStr">
@@ -27030,6 +31547,9 @@
       <c r="Z9" s="5" t="n">
         <v>200</v>
       </c>
+      <c r="AA9" t="n">
+        <v>321</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="inlineStr">
@@ -27111,6 +31631,9 @@
       </c>
       <c r="Z10" s="5" t="n">
         <v>845</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>592</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -27199,6 +31722,9 @@
         <v>0</v>
       </c>
       <c r="Z11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27364,6 +31890,9 @@
       <c r="Z13" s="7" t="n">
         <v>0</v>
       </c>
+      <c r="AA13" t="n">
+        <v>754</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="inlineStr">
@@ -27444,6 +31973,9 @@
         <v>0</v>
       </c>
       <c r="Z14" s="5" t="n"/>
+      <c r="AA14" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="inlineStr">
@@ -27524,6 +32056,9 @@
         <v>124</v>
       </c>
       <c r="Z15" s="5" t="n"/>
+      <c r="AA15" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="inlineStr">
@@ -27602,6 +32137,9 @@
       </c>
       <c r="Y16" s="5" t="n"/>
       <c r="Z16" s="5" t="n"/>
+      <c r="AA16" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="inlineStr">
@@ -27681,6 +32219,9 @@
       </c>
       <c r="Y17" s="5" t="n"/>
       <c r="Z17" s="5" t="n"/>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="12" t="inlineStr">
@@ -27768,6 +32309,9 @@
       </c>
       <c r="Y18" s="44" t="n"/>
       <c r="Z18" s="44" t="n"/>
+      <c r="AA18" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="13" t="inlineStr">
@@ -27868,6 +32412,9 @@
       <c r="Z19" s="46" t="n">
         <v>8880</v>
       </c>
+      <c r="AA19" t="n">
+        <v>4720</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -27963,6 +32510,9 @@
       <c r="Z20" s="45" t="n">
         <v>0</v>
       </c>
+      <c r="AA20" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="inlineStr">
@@ -28054,6 +32604,9 @@
       <c r="Z21" s="5" t="n">
         <v>394</v>
       </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="14" t="inlineStr">
@@ -28145,6 +32698,9 @@
       <c r="Z22" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="15" t="inlineStr">
@@ -28227,6 +32783,9 @@
       <c r="Z23" s="5" t="n">
         <v>2410</v>
       </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="16" t="inlineStr">
@@ -28308,6 +32867,9 @@
       </c>
       <c r="Z24" s="5" t="n">
         <v>3700</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2900</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -28369,6 +32931,9 @@
       <c r="Z25" s="5" t="n">
         <v>2376</v>
       </c>
+      <c r="AA25" t="n">
+        <v>1584</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="n"/>
@@ -28436,7 +33001,10 @@
         <v>10115</v>
       </c>
       <c r="Z26" s="7" t="n">
-        <v>10148</v>
+        <v>10268</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6090</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -28498,6 +33066,9 @@
       <c r="Z27" s="5" t="n">
         <v>168</v>
       </c>
+      <c r="AA27" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="n"/>
@@ -28556,7 +33127,10 @@
         <v>5112</v>
       </c>
       <c r="Z28" s="5" t="n">
-        <v>3534</v>
+        <v>3654</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2118</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -28618,6 +33192,9 @@
       <c r="Z29" s="5" t="n">
         <v>108</v>
       </c>
+      <c r="AA29" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="n"/>
@@ -28678,6 +33255,9 @@
       <c r="Z30" s="5" t="n">
         <v>536</v>
       </c>
+      <c r="AA30" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="n"/>
@@ -28738,6 +33318,9 @@
       <c r="Z31" s="5" t="n">
         <v>2200</v>
       </c>
+      <c r="AA31" t="n">
+        <v>743</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="n"/>
@@ -28798,6 +33381,9 @@
       <c r="Z32" s="5" t="n">
         <v>718</v>
       </c>
+      <c r="AA32" t="n">
+        <v>575</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="n"/>
@@ -28858,6 +33444,9 @@
       <c r="Z33" s="5" t="n">
         <v>1775</v>
       </c>
+      <c r="AA33" t="n">
+        <v>1509</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="n"/>
@@ -28918,6 +33507,9 @@
       <c r="Z34" s="5" t="n">
         <v>807</v>
       </c>
+      <c r="AA34" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="n"/>
@@ -28978,6 +33570,9 @@
       <c r="Z35" s="44" t="n">
         <v>302</v>
       </c>
+      <c r="AA35" t="n">
+        <v>377</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="n"/>
@@ -29046,6 +33641,9 @@
       </c>
       <c r="Z36" s="46" t="n">
         <v>4170</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1180</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -29107,6 +33705,9 @@
       <c r="Z37" s="45" t="n">
         <v>3230</v>
       </c>
+      <c r="AA37" t="n">
+        <v>1180</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="n"/>
@@ -29348,6 +33949,9 @@
       <c r="Z41" s="46" t="n">
         <v>1100</v>
       </c>
+      <c r="AA41" t="n">
+        <v>7037</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="n"/>
@@ -29404,6 +34008,9 @@
       <c r="Z42" s="5" t="n">
         <v>300</v>
       </c>
+      <c r="AA42" t="n">
+        <v>3047</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="n"/>
@@ -29458,6 +34065,9 @@
       <c r="Z43" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="n"/>
@@ -29512,6 +34122,9 @@
       <c r="Z44" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="AA44" t="n">
+        <v>2898</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="n"/>
@@ -29564,6 +34177,9 @@
       <c r="Z45" s="5" t="n">
         <v>800</v>
       </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="n"/>
@@ -29614,6 +34230,9 @@
       <c r="X46" s="5" t="n"/>
       <c r="Y46" s="5" t="n"/>
       <c r="Z46" s="5" t="n"/>
+      <c r="AA46" t="n">
+        <v>1092</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="n"/>
@@ -29681,6 +34300,9 @@
       </c>
       <c r="Z47" s="46" t="n">
         <v>1087</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>6939</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -29738,6 +34360,9 @@
       <c r="Z48" s="5" t="n">
         <v>1087</v>
       </c>
+      <c r="AA48" t="n">
+        <v>6939</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="n"/>
@@ -29800,6 +34425,9 @@
       </c>
       <c r="Z49" s="46" t="n">
         <v>3500</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -29922,6 +34550,9 @@
       <c r="Z51" s="46" t="n">
         <v>610</v>
       </c>
+      <c r="AA51" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="n"/>
@@ -29982,6 +34613,9 @@
       <c r="Z52" s="5" t="n">
         <v>100</v>
       </c>
+      <c r="AA52" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="n"/>
@@ -30169,6 +34803,9 @@
       <c r="Z55" s="10" t="n">
         <v>12057</v>
       </c>
+      <c r="AA55" t="n">
+        <v>15469</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="n"/>
@@ -30229,6 +34866,9 @@
       <c r="Z56" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="AA56" t="n">
+        <v>2537</v>
+      </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="n"/>
@@ -30289,6 +34929,9 @@
       <c r="Z57" s="5" t="n">
         <v>10000</v>
       </c>
+      <c r="AA57" t="n">
+        <v>10500</v>
+      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="n"/>
@@ -30349,6 +34992,9 @@
       <c r="Z58" s="5" t="n">
         <v>584</v>
       </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="n"/>
@@ -30409,6 +35055,9 @@
       <c r="Z59" s="5" t="n">
         <v>1063</v>
       </c>
+      <c r="AA59" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="n"/>
@@ -30469,6 +35118,9 @@
       <c r="Z60" s="5" t="n">
         <v>410</v>
       </c>
+      <c r="AA60" t="n">
+        <v>820</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="n"/>
@@ -30525,6 +35177,9 @@
         <v>537</v>
       </c>
       <c r="Z61" s="5" t="n"/>
+      <c r="AA61" t="n">
+        <v>1340</v>
+      </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="n"/>
@@ -30579,6 +35234,9 @@
       </c>
       <c r="Y62" s="5" t="n"/>
       <c r="Z62" s="5" t="n"/>
+      <c r="AA62" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="n"/>
@@ -30644,6 +35302,9 @@
       </c>
       <c r="Z63" s="7" t="n">
         <v>1200</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>861</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -30695,6 +35356,9 @@
       <c r="Z64" s="44" t="n">
         <v>1200</v>
       </c>
+      <c r="AA64" t="n">
+        <v>861</v>
+      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="n"/>
@@ -30760,6 +35424,9 @@
       </c>
       <c r="Z65" s="46" t="n">
         <v>7524</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>52761</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -30821,6 +35488,9 @@
       <c r="Z66" s="45" t="n">
         <v>1050</v>
       </c>
+      <c r="AA66" t="n">
+        <v>1799</v>
+      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="n"/>
@@ -30874,6 +35544,9 @@
       </c>
       <c r="Z67" s="5" t="n">
         <v>6474</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>50962</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
